--- a/metadata/celldive/todo/General Electric RTI (Cell DIVE).xlsx
+++ b/metadata/celldive/todo/General Electric RTI (Cell DIVE).xlsx
@@ -13,8 +13,8 @@
     <sheet name="Invalid Input Pattern" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'Non-Standard Value'!$A$1:$E$19</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'Missing Required Value'!$A$1:$D$161</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'Non-Standard Value'!$A$1:$E$3</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'Missing Required Value'!$A$1:$D$129</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">'Invalid Input Pattern'!$A$1:$F$33</definedName>
   </definedNames>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -420,7 +420,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C77"/>
+  <dimension ref="A1:B30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -431,15 +431,10 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>SCN400</t>
+          <t>BGI Genomics</t>
         </is>
       </c>
       <c r="B1" t="inlineStr">
-        <is>
-          <t>BGI Genomics</t>
-        </is>
-      </c>
-      <c r="C1" t="inlineStr">
         <is>
           <t>hour</t>
         </is>
@@ -448,15 +443,10 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>STELLARIS 5</t>
+          <t>Cytiva</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
-        <is>
-          <t>Cytiva</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
         <is>
           <t>month</t>
         </is>
@@ -465,15 +455,10 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>BZ-X710</t>
+          <t>Thermo Fisher Scientific</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
-        <is>
-          <t>Thermo Fisher Scientific</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
         <is>
           <t>year</t>
         </is>
@@ -482,15 +467,10 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Pannoramic MIDI II Digital Scanner</t>
+          <t>Zeiss Microscopy</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
-        <is>
-          <t>Zeiss Microscopy</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
         <is>
           <t>day</t>
         </is>
@@ -499,15 +479,10 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Not applicable</t>
+          <t>Complete Genomics</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
-        <is>
-          <t>Complete Genomics</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
         <is>
           <t>minute</t>
         </is>
@@ -516,11 +491,6 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>MoticEasyScan One</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
           <t>3DHISTECH</t>
         </is>
       </c>
@@ -528,11 +498,6 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>EVOS M7000</t>
-        </is>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
           <t>GE Healthcare</t>
         </is>
       </c>
@@ -540,11 +505,6 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>NovaSeq X</t>
-        </is>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
           <t>Leica Microsystems</t>
         </is>
       </c>
@@ -552,11 +512,6 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>NanoZoomer 2.0-HT</t>
-        </is>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
           <t>Akoya Biosciences</t>
         </is>
       </c>
@@ -564,11 +519,6 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>timsTOF Ultra 2</t>
-        </is>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
           <t>NanoString</t>
         </is>
       </c>
@@ -576,11 +526,6 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Lightsheet 7</t>
-        </is>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
           <t>Element Biosciences</t>
         </is>
       </c>
@@ -588,11 +533,6 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Phenocycler-Fusion 1.0</t>
-        </is>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
           <t>Andor</t>
         </is>
       </c>
@@ -600,11 +540,6 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>DNBSEQ-T7</t>
-        </is>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
           <t>Huron Digital Pathology</t>
         </is>
       </c>
@@ -612,11 +547,6 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>timsTOF Pro</t>
-        </is>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
           <t>Illumina</t>
         </is>
       </c>
@@ -624,11 +554,6 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Unknown</t>
-        </is>
-      </c>
-      <c r="B15" t="inlineStr">
-        <is>
           <t>Ionpath</t>
         </is>
       </c>
@@ -636,11 +561,6 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>AVITI</t>
-        </is>
-      </c>
-      <c r="B16" t="inlineStr">
-        <is>
           <t>In-House</t>
         </is>
       </c>
@@ -648,11 +568,6 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>timsTOF Pro 2</t>
-        </is>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
           <t>Resolve Biosciences</t>
         </is>
       </c>
@@ -660,11 +575,6 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>Q Exactive UHMR</t>
-        </is>
-      </c>
-      <c r="B18" t="inlineStr">
-        <is>
           <t>Singular Genomics</t>
         </is>
       </c>
@@ -672,11 +582,6 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>Q Exactive</t>
-        </is>
-      </c>
-      <c r="B19" t="inlineStr">
-        <is>
           <t>Vizgen</t>
         </is>
       </c>
@@ -684,11 +589,6 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>timsTOF SCP</t>
-        </is>
-      </c>
-      <c r="B20" t="inlineStr">
-        <is>
           <t>Standard BioTools (Fluidigm)</t>
         </is>
       </c>
@@ -696,11 +596,6 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>Zyla 4.2 sCMOS</t>
-        </is>
-      </c>
-      <c r="B21" t="inlineStr">
-        <is>
           <t>Sciex</t>
         </is>
       </c>
@@ -708,11 +603,6 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>Helios</t>
-        </is>
-      </c>
-      <c r="B22" t="inlineStr">
-        <is>
           <t>Bruker</t>
         </is>
       </c>
@@ -720,11 +610,6 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>uScopeHXII-20</t>
-        </is>
-      </c>
-      <c r="B23" t="inlineStr">
-        <is>
           <t>Evident Scientific (Olympus)</t>
         </is>
       </c>
@@ -732,11 +617,6 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>Custom: Multiphoton</t>
-        </is>
-      </c>
-      <c r="B24" t="inlineStr">
-        <is>
           <t>Keyence</t>
         </is>
       </c>
@@ -744,11 +624,6 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>QTRAP 5500</t>
-        </is>
-      </c>
-      <c r="B25" t="inlineStr">
-        <is>
           <t>Leica Biosystems</t>
         </is>
       </c>
@@ -756,11 +631,6 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>timsTOF Ultra</t>
-        </is>
-      </c>
-      <c r="B26" t="inlineStr">
-        <is>
           <t>Cytek Biosciences</t>
         </is>
       </c>
@@ -768,11 +638,6 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>BZ-X800</t>
-        </is>
-      </c>
-      <c r="B27" t="inlineStr">
-        <is>
           <t>10x Genomics</t>
         </is>
       </c>
@@ -780,11 +645,6 @@
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>CyTOF 2</t>
-        </is>
-      </c>
-      <c r="B28" t="inlineStr">
-        <is>
           <t>Microscopes International</t>
         </is>
       </c>
@@ -792,11 +652,6 @@
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>G4X Spatial Sequencer</t>
-        </is>
-      </c>
-      <c r="B29" t="inlineStr">
-        <is>
           <t>Hamamatsu</t>
         </is>
       </c>
@@ -804,341 +659,7 @@
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>NextSeq 500</t>
-        </is>
-      </c>
-      <c r="B30" t="inlineStr">
-        <is>
           <t>Motic</t>
-        </is>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" t="inlineStr">
-        <is>
-          <t>NanoZoomer S360</t>
-        </is>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" t="inlineStr">
-        <is>
-          <t>Hyperion Imaging System</t>
-        </is>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" t="inlineStr">
-        <is>
-          <t>NovaSeq X Plus</t>
-        </is>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34" t="inlineStr">
-        <is>
-          <t>CyTOF XT</t>
-        </is>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35" t="inlineStr">
-        <is>
-          <t>NanoZoomer-SQ</t>
-        </is>
-      </c>
-    </row>
-    <row r="36">
-      <c r="A36" t="inlineStr">
-        <is>
-          <t>NextSeq 550</t>
-        </is>
-      </c>
-    </row>
-    <row r="37">
-      <c r="A37" t="inlineStr">
-        <is>
-          <t>Axio Zoom.V16</t>
-        </is>
-      </c>
-    </row>
-    <row r="38">
-      <c r="A38" t="inlineStr">
-        <is>
-          <t>Digital Spatial Profiler</t>
-        </is>
-      </c>
-    </row>
-    <row r="39">
-      <c r="A39" t="inlineStr">
-        <is>
-          <t>timsTOF FleX</t>
-        </is>
-      </c>
-    </row>
-    <row r="40">
-      <c r="A40" t="inlineStr">
-        <is>
-          <t>timsTOF FleX MALDI-2</t>
-        </is>
-      </c>
-    </row>
-    <row r="41">
-      <c r="A41" t="inlineStr">
-        <is>
-          <t>NanoZoomer S210</t>
-        </is>
-      </c>
-    </row>
-    <row r="42">
-      <c r="A42" t="inlineStr">
-        <is>
-          <t>BZ-X810</t>
-        </is>
-      </c>
-    </row>
-    <row r="43">
-      <c r="A43" t="inlineStr">
-        <is>
-          <t>Axio Observer 7</t>
-        </is>
-      </c>
-    </row>
-    <row r="44">
-      <c r="A44" t="inlineStr">
-        <is>
-          <t>Cytek Northern Lights</t>
-        </is>
-      </c>
-    </row>
-    <row r="45">
-      <c r="A45" t="inlineStr">
-        <is>
-          <t>IN Cell Analyzer 2200</t>
-        </is>
-      </c>
-    </row>
-    <row r="46">
-      <c r="A46" t="inlineStr">
-        <is>
-          <t>timsTOF HT</t>
-        </is>
-      </c>
-    </row>
-    <row r="47">
-      <c r="A47" t="inlineStr">
-        <is>
-          <t>PhenoImager Fusion</t>
-        </is>
-      </c>
-    </row>
-    <row r="48">
-      <c r="A48" t="inlineStr">
-        <is>
-          <t>DM6 B</t>
-        </is>
-      </c>
-    </row>
-    <row r="49">
-      <c r="A49" t="inlineStr">
-        <is>
-          <t>Phenocycler-Fusion 2.0</t>
-        </is>
-      </c>
-    </row>
-    <row r="50">
-      <c r="A50" t="inlineStr">
-        <is>
-          <t>Aperio CS2</t>
-        </is>
-      </c>
-    </row>
-    <row r="51">
-      <c r="A51" t="inlineStr">
-        <is>
-          <t>Orbitrap Fusion Lumos Tribrid</t>
-        </is>
-      </c>
-    </row>
-    <row r="52">
-      <c r="A52" t="inlineStr">
-        <is>
-          <t>Resolve Biosciences Molecular Cartography</t>
-        </is>
-      </c>
-    </row>
-    <row r="53">
-      <c r="A53" t="inlineStr">
-        <is>
-          <t>MALDI timsTOF Flex Prototype</t>
-        </is>
-      </c>
-    </row>
-    <row r="54">
-      <c r="A54" t="inlineStr">
-        <is>
-          <t>TissueScope LE Slide Scanner</t>
-        </is>
-      </c>
-    </row>
-    <row r="55">
-      <c r="A55" t="inlineStr">
-        <is>
-          <t>VS200 Slide Scanner</t>
-        </is>
-      </c>
-    </row>
-    <row r="56">
-      <c r="A56" t="inlineStr">
-        <is>
-          <t>Axio Observer 5</t>
-        </is>
-      </c>
-    </row>
-    <row r="57">
-      <c r="A57" t="inlineStr">
-        <is>
-          <t>Axio Observer 3</t>
-        </is>
-      </c>
-    </row>
-    <row r="58">
-      <c r="A58" t="inlineStr">
-        <is>
-          <t>HiSeq 2500</t>
-        </is>
-      </c>
-    </row>
-    <row r="59">
-      <c r="A59" t="inlineStr">
-        <is>
-          <t>Orbitrap Eclipse Tribrid</t>
-        </is>
-      </c>
-    </row>
-    <row r="60">
-      <c r="A60" t="inlineStr">
-        <is>
-          <t>Cell DIVE</t>
-        </is>
-      </c>
-    </row>
-    <row r="61">
-      <c r="A61" t="inlineStr">
-        <is>
-          <t>MERSCOPE</t>
-        </is>
-      </c>
-    </row>
-    <row r="62">
-      <c r="A62" t="inlineStr">
-        <is>
-          <t>NextSeq 2000</t>
-        </is>
-      </c>
-    </row>
-    <row r="63">
-      <c r="A63" t="inlineStr">
-        <is>
-          <t>NovaSeq 6000</t>
-        </is>
-      </c>
-    </row>
-    <row r="64">
-      <c r="A64" t="inlineStr">
-        <is>
-          <t>In-House</t>
-        </is>
-      </c>
-    </row>
-    <row r="65">
-      <c r="A65" t="inlineStr">
-        <is>
-          <t>HiSeq 4000</t>
-        </is>
-      </c>
-    </row>
-    <row r="66">
-      <c r="A66" t="inlineStr">
-        <is>
-          <t>solariX</t>
-        </is>
-      </c>
-    </row>
-    <row r="67">
-      <c r="A67" t="inlineStr">
-        <is>
-          <t>Panoramic 150 Digital Scanner</t>
-        </is>
-      </c>
-    </row>
-    <row r="68">
-      <c r="A68" t="inlineStr">
-        <is>
-          <t>Aperio AT2</t>
-        </is>
-      </c>
-    </row>
-    <row r="69">
-      <c r="A69" t="inlineStr">
-        <is>
-          <t>MIBIscope</t>
-        </is>
-      </c>
-    </row>
-    <row r="70">
-      <c r="A70" t="inlineStr">
-        <is>
-          <t>Biomark HD</t>
-        </is>
-      </c>
-    </row>
-    <row r="71">
-      <c r="A71" t="inlineStr">
-        <is>
-          <t>NanoZoomer S60</t>
-        </is>
-      </c>
-    </row>
-    <row r="72">
-      <c r="A72" t="inlineStr">
-        <is>
-          <t>CosMx Spatial Molecular Imager</t>
-        </is>
-      </c>
-    </row>
-    <row r="73">
-      <c r="A73" t="inlineStr">
-        <is>
-          <t>MERSCOPE Ultra</t>
-        </is>
-      </c>
-    </row>
-    <row r="74">
-      <c r="A74" t="inlineStr">
-        <is>
-          <t>Axio Scan.Z1</t>
-        </is>
-      </c>
-    </row>
-    <row r="75">
-      <c r="A75" t="inlineStr">
-        <is>
-          <t>Juno System</t>
-        </is>
-      </c>
-    </row>
-    <row r="76">
-      <c r="A76" t="inlineStr">
-        <is>
-          <t>Q Exactive HF</t>
-        </is>
-      </c>
-    </row>
-    <row r="77">
-      <c r="A77" t="inlineStr">
-        <is>
-          <t>Xenium Analyzer</t>
         </is>
       </c>
     </row>
@@ -1153,7 +674,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E19"/>
+  <dimension ref="A1:E3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1191,30 +712,30 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>HBM234.DHWB.478</t>
+          <t>HBM388.RPTF.754</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>acquisition_instrument_model</t>
+          <t>acquisition_instrument_vendor</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Cell DIVE Imager</t>
+          <t>Leica</t>
         </is>
       </c>
       <c r="D2" t="inlineStr"/>
       <c r="E2" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM234.DHWB.478</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM388.RPTF.754</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>HBM258.LPGK.484</t>
+          <t>HBM397.DNSQ.977</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -1230,386 +751,15 @@
       <c r="D3" t="inlineStr"/>
       <c r="E3" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM258.LPGK.484</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>HBM289.XGJN.789</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>acquisition_instrument_vendor</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>Leica</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr"/>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM289.XGJN.789</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>HBM388.RPTF.754</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>acquisition_instrument_model</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>Cell DIVE imager</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr"/>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM388.RPTF.754</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>HBM388.RPTF.754</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>acquisition_instrument_vendor</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>Leica</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr"/>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM388.RPTF.754</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>HBM397.DNSQ.977</t>
-        </is>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>acquisition_instrument_model</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>Cell DIVE imager</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr"/>
-      <c r="E7" t="inlineStr">
-        <is>
           <t>https://portal.hubmapconsortium.org/browse/HBM397.DNSQ.977</t>
         </is>
       </c>
     </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>HBM397.DNSQ.977</t>
-        </is>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>acquisition_instrument_vendor</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>Leica</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr"/>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM397.DNSQ.977</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>HBM397.WXXH.736</t>
-        </is>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>acquisition_instrument_vendor</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>Leica</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr"/>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM397.WXXH.736</t>
-        </is>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>HBM482.MVFZ.845</t>
-        </is>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>acquisition_instrument_model</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>Cell DIVE Imager</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr"/>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM482.MVFZ.845</t>
-        </is>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>HBM657.CDHD.889</t>
-        </is>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>acquisition_instrument_vendor</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>Leica</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr"/>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM657.CDHD.889</t>
-        </is>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>HBM664.FKZG.689</t>
-        </is>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>acquisition_instrument_model</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>Cell DIVE Imager</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr"/>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM664.FKZG.689</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>HBM679.HJKX.869</t>
-        </is>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>acquisition_instrument_model</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>Cell DIVE Imager</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr"/>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM679.HJKX.869</t>
-        </is>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="inlineStr">
-        <is>
-          <t>HBM696.JXRB.423</t>
-        </is>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>acquisition_instrument_vendor</t>
-        </is>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>Leica</t>
-        </is>
-      </c>
-      <c r="D14" t="inlineStr"/>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM696.JXRB.423</t>
-        </is>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="inlineStr">
-        <is>
-          <t>HBM756.VJGX.949</t>
-        </is>
-      </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>acquisition_instrument_model</t>
-        </is>
-      </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>Cell DIVE Imager</t>
-        </is>
-      </c>
-      <c r="D15" t="inlineStr"/>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM756.VJGX.949</t>
-        </is>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
-        <is>
-          <t>HBM775.JPHP.327</t>
-        </is>
-      </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>acquisition_instrument_vendor</t>
-        </is>
-      </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>Leica</t>
-        </is>
-      </c>
-      <c r="D16" t="inlineStr"/>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM775.JPHP.327</t>
-        </is>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>HBM828.LLCJ.983</t>
-        </is>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>acquisition_instrument_model</t>
-        </is>
-      </c>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t>Cell DIVE Imager</t>
-        </is>
-      </c>
-      <c r="D17" t="inlineStr"/>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM828.LLCJ.983</t>
-        </is>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
-        <is>
-          <t>HBM993.ZZWK.542</t>
-        </is>
-      </c>
-      <c r="B18" t="inlineStr">
-        <is>
-          <t>acquisition_instrument_vendor</t>
-        </is>
-      </c>
-      <c r="C18" t="inlineStr">
-        <is>
-          <t>Leica</t>
-        </is>
-      </c>
-      <c r="D18" t="inlineStr"/>
-      <c r="E18" t="inlineStr">
-        <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM993.ZZWK.542</t>
-        </is>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="inlineStr">
-        <is>
-          <t>HBM999.CXFH.954</t>
-        </is>
-      </c>
-      <c r="B19" t="inlineStr">
-        <is>
-          <t>acquisition_instrument_vendor</t>
-        </is>
-      </c>
-      <c r="C19" t="inlineStr">
-        <is>
-          <t>Leica</t>
-        </is>
-      </c>
-      <c r="D19" t="inlineStr"/>
-      <c r="E19" t="inlineStr">
-        <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM999.CXFH.954</t>
-        </is>
-      </c>
-    </row>
   </sheetData>
-  <autoFilter ref="A1:E19"/>
-  <dataValidations count="2">
-    <dataValidation sqref="D2 D5 D7 D10 D12 D13 D15 D17" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" errorTitle="Invalid Entry" error="Your entry is not in the list" promptTitle="List Selection" prompt="Please select from the list" type="list">
-      <formula1>_validation_data!$A$1:$A$77</formula1>
-    </dataValidation>
-    <dataValidation sqref="D3 D4 D6 D8 D9 D11 D14 D16 D18 D19" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" errorTitle="Invalid Entry" error="Your entry is not in the list" promptTitle="List Selection" prompt="Please select from the list" type="list">
-      <formula1>_validation_data!$B$1:$B$30</formula1>
+  <autoFilter ref="A1:E3"/>
+  <dataValidations count="1">
+    <dataValidation sqref="D2 D3" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" errorTitle="Invalid Entry" error="Your entry is not in the list" promptTitle="List Selection" prompt="Please select from the list" type="list">
+      <formula1>_validation_data!$A$1:$A$30</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -1622,7 +772,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D161"/>
+  <dimension ref="A1:D129"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1678,7 +828,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>nuclear_marker_or_stain</t>
+          <t>slide_id</t>
         </is>
       </c>
       <c r="C3" t="inlineStr"/>
@@ -1696,7 +846,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>slide_id</t>
+          <t>source_storage_duration_unit</t>
         </is>
       </c>
       <c r="C4" t="inlineStr"/>
@@ -1714,7 +864,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>source_storage_duration_unit</t>
+          <t>source_storage_duration_value</t>
         </is>
       </c>
       <c r="C5" t="inlineStr"/>
@@ -1727,18 +877,18 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>HBM234.DHWB.478</t>
+          <t>HBM238.ZKPC.934</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>source_storage_duration_value</t>
+          <t>cell_boundary_marker_or_stain</t>
         </is>
       </c>
       <c r="C6" t="inlineStr"/>
       <c r="D6" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM234.DHWB.478</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM238.ZKPC.934</t>
         </is>
       </c>
     </row>
@@ -1750,7 +900,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>cell_boundary_marker_or_stain</t>
+          <t>slide_id</t>
         </is>
       </c>
       <c r="C7" t="inlineStr"/>
@@ -1768,7 +918,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>nuclear_marker_or_stain</t>
+          <t>source_storage_duration_unit</t>
         </is>
       </c>
       <c r="C8" t="inlineStr"/>
@@ -1786,7 +936,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>slide_id</t>
+          <t>source_storage_duration_value</t>
         </is>
       </c>
       <c r="C9" t="inlineStr"/>
@@ -1799,36 +949,36 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>HBM238.ZKPC.934</t>
+          <t>HBM258.LPGK.484</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>source_storage_duration_unit</t>
+          <t>cell_boundary_marker_or_stain</t>
         </is>
       </c>
       <c r="C10" t="inlineStr"/>
       <c r="D10" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM238.ZKPC.934</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM258.LPGK.484</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>HBM238.ZKPC.934</t>
+          <t>HBM258.LPGK.484</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>source_storage_duration_value</t>
+          <t>slide_id</t>
         </is>
       </c>
       <c r="C11" t="inlineStr"/>
       <c r="D11" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM238.ZKPC.934</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM258.LPGK.484</t>
         </is>
       </c>
     </row>
@@ -1840,7 +990,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>cell_boundary_marker_or_stain</t>
+          <t>source_storage_duration_unit</t>
         </is>
       </c>
       <c r="C12" t="inlineStr"/>
@@ -1858,7 +1008,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>nuclear_marker_or_stain</t>
+          <t>source_storage_duration_value</t>
         </is>
       </c>
       <c r="C13" t="inlineStr"/>
@@ -1871,54 +1021,54 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>HBM258.LPGK.484</t>
+          <t>HBM289.XGJN.789</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>slide_id</t>
+          <t>cell_boundary_marker_or_stain</t>
         </is>
       </c>
       <c r="C14" t="inlineStr"/>
       <c r="D14" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM258.LPGK.484</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM289.XGJN.789</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>HBM258.LPGK.484</t>
+          <t>HBM289.XGJN.789</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>source_storage_duration_unit</t>
+          <t>slide_id</t>
         </is>
       </c>
       <c r="C15" t="inlineStr"/>
       <c r="D15" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM258.LPGK.484</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM289.XGJN.789</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>HBM258.LPGK.484</t>
+          <t>HBM289.XGJN.789</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>source_storage_duration_value</t>
+          <t>source_storage_duration_unit</t>
         </is>
       </c>
       <c r="C16" t="inlineStr"/>
       <c r="D16" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM258.LPGK.484</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM289.XGJN.789</t>
         </is>
       </c>
     </row>
@@ -1930,7 +1080,7 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>cell_boundary_marker_or_stain</t>
+          <t>source_storage_duration_value</t>
         </is>
       </c>
       <c r="C17" t="inlineStr"/>
@@ -1943,25 +1093,25 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>HBM289.XGJN.789</t>
+          <t>HBM388.RPTF.754</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>nuclear_marker_or_stain</t>
+          <t>cell_boundary_marker_or_stain</t>
         </is>
       </c>
       <c r="C18" t="inlineStr"/>
       <c r="D18" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM289.XGJN.789</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM388.RPTF.754</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>HBM289.XGJN.789</t>
+          <t>HBM388.RPTF.754</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
@@ -1972,14 +1122,14 @@
       <c r="C19" t="inlineStr"/>
       <c r="D19" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM289.XGJN.789</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM388.RPTF.754</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>HBM289.XGJN.789</t>
+          <t>HBM388.RPTF.754</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
@@ -1990,14 +1140,14 @@
       <c r="C20" t="inlineStr"/>
       <c r="D20" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM289.XGJN.789</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM388.RPTF.754</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>HBM289.XGJN.789</t>
+          <t>HBM388.RPTF.754</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
@@ -2008,14 +1158,14 @@
       <c r="C21" t="inlineStr"/>
       <c r="D21" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM289.XGJN.789</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM388.RPTF.754</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>HBM388.RPTF.754</t>
+          <t>HBM397.DNSQ.977</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
@@ -2026,302 +1176,302 @@
       <c r="C22" t="inlineStr"/>
       <c r="D22" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM388.RPTF.754</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM397.DNSQ.977</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>HBM388.RPTF.754</t>
+          <t>HBM397.DNSQ.977</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>nuclear_marker_or_stain</t>
+          <t>slide_id</t>
         </is>
       </c>
       <c r="C23" t="inlineStr"/>
       <c r="D23" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM388.RPTF.754</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM397.DNSQ.977</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>HBM388.RPTF.754</t>
+          <t>HBM397.DNSQ.977</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>slide_id</t>
+          <t>source_storage_duration_unit</t>
         </is>
       </c>
       <c r="C24" t="inlineStr"/>
       <c r="D24" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM388.RPTF.754</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM397.DNSQ.977</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>HBM388.RPTF.754</t>
+          <t>HBM397.DNSQ.977</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>source_storage_duration_unit</t>
+          <t>source_storage_duration_value</t>
         </is>
       </c>
       <c r="C25" t="inlineStr"/>
       <c r="D25" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM388.RPTF.754</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM397.DNSQ.977</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>HBM388.RPTF.754</t>
+          <t>HBM397.WXXH.736</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>source_storage_duration_value</t>
+          <t>cell_boundary_marker_or_stain</t>
         </is>
       </c>
       <c r="C26" t="inlineStr"/>
       <c r="D26" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM388.RPTF.754</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM397.WXXH.736</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>HBM397.DNSQ.977</t>
+          <t>HBM397.WXXH.736</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>cell_boundary_marker_or_stain</t>
+          <t>slide_id</t>
         </is>
       </c>
       <c r="C27" t="inlineStr"/>
       <c r="D27" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM397.DNSQ.977</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM397.WXXH.736</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>HBM397.DNSQ.977</t>
+          <t>HBM397.WXXH.736</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>nuclear_marker_or_stain</t>
+          <t>source_storage_duration_unit</t>
         </is>
       </c>
       <c r="C28" t="inlineStr"/>
       <c r="D28" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM397.DNSQ.977</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM397.WXXH.736</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>HBM397.DNSQ.977</t>
+          <t>HBM397.WXXH.736</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>slide_id</t>
+          <t>source_storage_duration_value</t>
         </is>
       </c>
       <c r="C29" t="inlineStr"/>
       <c r="D29" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM397.DNSQ.977</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM397.WXXH.736</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>HBM397.DNSQ.977</t>
+          <t>HBM398.NCVN.256</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>source_storage_duration_unit</t>
+          <t>cell_boundary_marker_or_stain</t>
         </is>
       </c>
       <c r="C30" t="inlineStr"/>
       <c r="D30" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM397.DNSQ.977</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM398.NCVN.256</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>HBM397.DNSQ.977</t>
+          <t>HBM398.NCVN.256</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>source_storage_duration_value</t>
+          <t>slide_id</t>
         </is>
       </c>
       <c r="C31" t="inlineStr"/>
       <c r="D31" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM397.DNSQ.977</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM398.NCVN.256</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>HBM397.WXXH.736</t>
+          <t>HBM398.NCVN.256</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>cell_boundary_marker_or_stain</t>
+          <t>source_storage_duration_unit</t>
         </is>
       </c>
       <c r="C32" t="inlineStr"/>
       <c r="D32" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM397.WXXH.736</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM398.NCVN.256</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>HBM397.WXXH.736</t>
+          <t>HBM398.NCVN.256</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>nuclear_marker_or_stain</t>
+          <t>source_storage_duration_value</t>
         </is>
       </c>
       <c r="C33" t="inlineStr"/>
       <c r="D33" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM397.WXXH.736</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM398.NCVN.256</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>HBM397.WXXH.736</t>
+          <t>HBM482.MVFZ.845</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>slide_id</t>
+          <t>cell_boundary_marker_or_stain</t>
         </is>
       </c>
       <c r="C34" t="inlineStr"/>
       <c r="D34" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM397.WXXH.736</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM482.MVFZ.845</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>HBM397.WXXH.736</t>
+          <t>HBM482.MVFZ.845</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>source_storage_duration_unit</t>
+          <t>slide_id</t>
         </is>
       </c>
       <c r="C35" t="inlineStr"/>
       <c r="D35" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM397.WXXH.736</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM482.MVFZ.845</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>HBM397.WXXH.736</t>
+          <t>HBM482.MVFZ.845</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>source_storage_duration_value</t>
+          <t>source_storage_duration_unit</t>
         </is>
       </c>
       <c r="C36" t="inlineStr"/>
       <c r="D36" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM397.WXXH.736</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM482.MVFZ.845</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>HBM398.NCVN.256</t>
+          <t>HBM482.MVFZ.845</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>cell_boundary_marker_or_stain</t>
+          <t>source_storage_duration_value</t>
         </is>
       </c>
       <c r="C37" t="inlineStr"/>
       <c r="D37" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM398.NCVN.256</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM482.MVFZ.845</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>HBM398.NCVN.256</t>
+          <t>HBM494.XDQW.356</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>nuclear_marker_or_stain</t>
+          <t>cell_boundary_marker_or_stain</t>
         </is>
       </c>
       <c r="C38" t="inlineStr"/>
       <c r="D38" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM398.NCVN.256</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM494.XDQW.356</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>HBM398.NCVN.256</t>
+          <t>HBM494.XDQW.356</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
@@ -2332,14 +1482,14 @@
       <c r="C39" t="inlineStr"/>
       <c r="D39" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM398.NCVN.256</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM494.XDQW.356</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>HBM398.NCVN.256</t>
+          <t>HBM494.XDQW.356</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
@@ -2350,14 +1500,14 @@
       <c r="C40" t="inlineStr"/>
       <c r="D40" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM398.NCVN.256</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM494.XDQW.356</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>HBM398.NCVN.256</t>
+          <t>HBM494.XDQW.356</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
@@ -2368,14 +1518,14 @@
       <c r="C41" t="inlineStr"/>
       <c r="D41" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM398.NCVN.256</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM494.XDQW.356</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>HBM482.MVFZ.845</t>
+          <t>HBM565.SQDP.934</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
@@ -2386,302 +1536,302 @@
       <c r="C42" t="inlineStr"/>
       <c r="D42" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM482.MVFZ.845</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM565.SQDP.934</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>HBM482.MVFZ.845</t>
+          <t>HBM565.SQDP.934</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>nuclear_marker_or_stain</t>
+          <t>slide_id</t>
         </is>
       </c>
       <c r="C43" t="inlineStr"/>
       <c r="D43" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM482.MVFZ.845</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM565.SQDP.934</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>HBM482.MVFZ.845</t>
+          <t>HBM565.SQDP.934</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>slide_id</t>
+          <t>source_storage_duration_unit</t>
         </is>
       </c>
       <c r="C44" t="inlineStr"/>
       <c r="D44" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM482.MVFZ.845</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM565.SQDP.934</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>HBM482.MVFZ.845</t>
+          <t>HBM565.SQDP.934</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>source_storage_duration_unit</t>
+          <t>source_storage_duration_value</t>
         </is>
       </c>
       <c r="C45" t="inlineStr"/>
       <c r="D45" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM482.MVFZ.845</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM565.SQDP.934</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>HBM482.MVFZ.845</t>
+          <t>HBM592.JGSQ.253</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>source_storage_duration_value</t>
+          <t>cell_boundary_marker_or_stain</t>
         </is>
       </c>
       <c r="C46" t="inlineStr"/>
       <c r="D46" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM482.MVFZ.845</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM592.JGSQ.253</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>HBM494.XDQW.356</t>
+          <t>HBM592.JGSQ.253</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>cell_boundary_marker_or_stain</t>
+          <t>slide_id</t>
         </is>
       </c>
       <c r="C47" t="inlineStr"/>
       <c r="D47" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM494.XDQW.356</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM592.JGSQ.253</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>HBM494.XDQW.356</t>
+          <t>HBM592.JGSQ.253</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>nuclear_marker_or_stain</t>
+          <t>source_storage_duration_unit</t>
         </is>
       </c>
       <c r="C48" t="inlineStr"/>
       <c r="D48" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM494.XDQW.356</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM592.JGSQ.253</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>HBM494.XDQW.356</t>
+          <t>HBM592.JGSQ.253</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>slide_id</t>
+          <t>source_storage_duration_value</t>
         </is>
       </c>
       <c r="C49" t="inlineStr"/>
       <c r="D49" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM494.XDQW.356</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM592.JGSQ.253</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>HBM494.XDQW.356</t>
+          <t>HBM657.CDHD.889</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>source_storage_duration_unit</t>
+          <t>cell_boundary_marker_or_stain</t>
         </is>
       </c>
       <c r="C50" t="inlineStr"/>
       <c r="D50" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM494.XDQW.356</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM657.CDHD.889</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>HBM494.XDQW.356</t>
+          <t>HBM657.CDHD.889</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>source_storage_duration_value</t>
+          <t>slide_id</t>
         </is>
       </c>
       <c r="C51" t="inlineStr"/>
       <c r="D51" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM494.XDQW.356</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM657.CDHD.889</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>HBM565.SQDP.934</t>
+          <t>HBM657.CDHD.889</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>cell_boundary_marker_or_stain</t>
+          <t>source_storage_duration_unit</t>
         </is>
       </c>
       <c r="C52" t="inlineStr"/>
       <c r="D52" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM565.SQDP.934</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM657.CDHD.889</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>HBM565.SQDP.934</t>
+          <t>HBM657.CDHD.889</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>nuclear_marker_or_stain</t>
+          <t>source_storage_duration_value</t>
         </is>
       </c>
       <c r="C53" t="inlineStr"/>
       <c r="D53" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM565.SQDP.934</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM657.CDHD.889</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>HBM565.SQDP.934</t>
+          <t>HBM664.DZXQ.368</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>slide_id</t>
+          <t>cell_boundary_marker_or_stain</t>
         </is>
       </c>
       <c r="C54" t="inlineStr"/>
       <c r="D54" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM565.SQDP.934</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM664.DZXQ.368</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>HBM565.SQDP.934</t>
+          <t>HBM664.DZXQ.368</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>source_storage_duration_unit</t>
+          <t>slide_id</t>
         </is>
       </c>
       <c r="C55" t="inlineStr"/>
       <c r="D55" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM565.SQDP.934</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM664.DZXQ.368</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>HBM565.SQDP.934</t>
+          <t>HBM664.DZXQ.368</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>source_storage_duration_value</t>
+          <t>source_storage_duration_unit</t>
         </is>
       </c>
       <c r="C56" t="inlineStr"/>
       <c r="D56" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM565.SQDP.934</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM664.DZXQ.368</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>HBM592.JGSQ.253</t>
+          <t>HBM664.DZXQ.368</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>cell_boundary_marker_or_stain</t>
+          <t>source_storage_duration_value</t>
         </is>
       </c>
       <c r="C57" t="inlineStr"/>
       <c r="D57" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM592.JGSQ.253</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM664.DZXQ.368</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>HBM592.JGSQ.253</t>
+          <t>HBM664.FKZG.689</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>nuclear_marker_or_stain</t>
+          <t>cell_boundary_marker_or_stain</t>
         </is>
       </c>
       <c r="C58" t="inlineStr"/>
       <c r="D58" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM592.JGSQ.253</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM664.FKZG.689</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>HBM592.JGSQ.253</t>
+          <t>HBM664.FKZG.689</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
@@ -2692,14 +1842,14 @@
       <c r="C59" t="inlineStr"/>
       <c r="D59" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM592.JGSQ.253</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM664.FKZG.689</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>HBM592.JGSQ.253</t>
+          <t>HBM664.FKZG.689</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
@@ -2710,14 +1860,14 @@
       <c r="C60" t="inlineStr"/>
       <c r="D60" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM592.JGSQ.253</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM664.FKZG.689</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>HBM592.JGSQ.253</t>
+          <t>HBM664.FKZG.689</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
@@ -2728,14 +1878,14 @@
       <c r="C61" t="inlineStr"/>
       <c r="D61" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM592.JGSQ.253</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM664.FKZG.689</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>HBM657.CDHD.889</t>
+          <t>HBM666.JCGS.862</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
@@ -2746,302 +1896,302 @@
       <c r="C62" t="inlineStr"/>
       <c r="D62" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM657.CDHD.889</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM666.JCGS.862</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>HBM657.CDHD.889</t>
+          <t>HBM666.JCGS.862</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>nuclear_marker_or_stain</t>
+          <t>slide_id</t>
         </is>
       </c>
       <c r="C63" t="inlineStr"/>
       <c r="D63" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM657.CDHD.889</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM666.JCGS.862</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>HBM657.CDHD.889</t>
+          <t>HBM666.JCGS.862</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>slide_id</t>
+          <t>source_storage_duration_unit</t>
         </is>
       </c>
       <c r="C64" t="inlineStr"/>
       <c r="D64" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM657.CDHD.889</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM666.JCGS.862</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>HBM657.CDHD.889</t>
+          <t>HBM666.JCGS.862</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>source_storage_duration_unit</t>
+          <t>source_storage_duration_value</t>
         </is>
       </c>
       <c r="C65" t="inlineStr"/>
       <c r="D65" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM657.CDHD.889</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM666.JCGS.862</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>HBM657.CDHD.889</t>
+          <t>HBM674.XQFQ.364</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>source_storage_duration_value</t>
+          <t>cell_boundary_marker_or_stain</t>
         </is>
       </c>
       <c r="C66" t="inlineStr"/>
       <c r="D66" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM657.CDHD.889</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM674.XQFQ.364</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>HBM664.DZXQ.368</t>
+          <t>HBM674.XQFQ.364</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>cell_boundary_marker_or_stain</t>
+          <t>slide_id</t>
         </is>
       </c>
       <c r="C67" t="inlineStr"/>
       <c r="D67" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM664.DZXQ.368</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM674.XQFQ.364</t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>HBM664.DZXQ.368</t>
+          <t>HBM674.XQFQ.364</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>nuclear_marker_or_stain</t>
+          <t>source_storage_duration_unit</t>
         </is>
       </c>
       <c r="C68" t="inlineStr"/>
       <c r="D68" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM664.DZXQ.368</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM674.XQFQ.364</t>
         </is>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>HBM664.DZXQ.368</t>
+          <t>HBM674.XQFQ.364</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>slide_id</t>
+          <t>source_storage_duration_value</t>
         </is>
       </c>
       <c r="C69" t="inlineStr"/>
       <c r="D69" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM664.DZXQ.368</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM674.XQFQ.364</t>
         </is>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>HBM664.DZXQ.368</t>
+          <t>HBM679.HJKX.869</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>source_storage_duration_unit</t>
+          <t>cell_boundary_marker_or_stain</t>
         </is>
       </c>
       <c r="C70" t="inlineStr"/>
       <c r="D70" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM664.DZXQ.368</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM679.HJKX.869</t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>HBM664.DZXQ.368</t>
+          <t>HBM679.HJKX.869</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>source_storage_duration_value</t>
+          <t>slide_id</t>
         </is>
       </c>
       <c r="C71" t="inlineStr"/>
       <c r="D71" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM664.DZXQ.368</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM679.HJKX.869</t>
         </is>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>HBM664.FKZG.689</t>
+          <t>HBM679.HJKX.869</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>cell_boundary_marker_or_stain</t>
+          <t>source_storage_duration_unit</t>
         </is>
       </c>
       <c r="C72" t="inlineStr"/>
       <c r="D72" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM664.FKZG.689</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM679.HJKX.869</t>
         </is>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>HBM664.FKZG.689</t>
+          <t>HBM679.HJKX.869</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>nuclear_marker_or_stain</t>
+          <t>source_storage_duration_value</t>
         </is>
       </c>
       <c r="C73" t="inlineStr"/>
       <c r="D73" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM664.FKZG.689</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM679.HJKX.869</t>
         </is>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>HBM664.FKZG.689</t>
+          <t>HBM696.JXRB.423</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>slide_id</t>
+          <t>cell_boundary_marker_or_stain</t>
         </is>
       </c>
       <c r="C74" t="inlineStr"/>
       <c r="D74" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM664.FKZG.689</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM696.JXRB.423</t>
         </is>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>HBM664.FKZG.689</t>
+          <t>HBM696.JXRB.423</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>source_storage_duration_unit</t>
+          <t>slide_id</t>
         </is>
       </c>
       <c r="C75" t="inlineStr"/>
       <c r="D75" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM664.FKZG.689</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM696.JXRB.423</t>
         </is>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>HBM664.FKZG.689</t>
+          <t>HBM696.JXRB.423</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>source_storage_duration_value</t>
+          <t>source_storage_duration_unit</t>
         </is>
       </c>
       <c r="C76" t="inlineStr"/>
       <c r="D76" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM664.FKZG.689</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM696.JXRB.423</t>
         </is>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>HBM666.JCGS.862</t>
+          <t>HBM696.JXRB.423</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>cell_boundary_marker_or_stain</t>
+          <t>source_storage_duration_value</t>
         </is>
       </c>
       <c r="C77" t="inlineStr"/>
       <c r="D77" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM666.JCGS.862</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM696.JXRB.423</t>
         </is>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>HBM666.JCGS.862</t>
+          <t>HBM732.FZVZ.656</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>nuclear_marker_or_stain</t>
+          <t>cell_boundary_marker_or_stain</t>
         </is>
       </c>
       <c r="C78" t="inlineStr"/>
       <c r="D78" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM666.JCGS.862</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM732.FZVZ.656</t>
         </is>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>HBM666.JCGS.862</t>
+          <t>HBM732.FZVZ.656</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
@@ -3052,14 +2202,14 @@
       <c r="C79" t="inlineStr"/>
       <c r="D79" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM666.JCGS.862</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM732.FZVZ.656</t>
         </is>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>HBM666.JCGS.862</t>
+          <t>HBM732.FZVZ.656</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
@@ -3070,14 +2220,14 @@
       <c r="C80" t="inlineStr"/>
       <c r="D80" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM666.JCGS.862</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM732.FZVZ.656</t>
         </is>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>HBM666.JCGS.862</t>
+          <t>HBM732.FZVZ.656</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
@@ -3088,14 +2238,14 @@
       <c r="C81" t="inlineStr"/>
       <c r="D81" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM666.JCGS.862</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM732.FZVZ.656</t>
         </is>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>HBM674.XQFQ.364</t>
+          <t>HBM746.VTDZ.959</t>
         </is>
       </c>
       <c r="B82" t="inlineStr">
@@ -3106,302 +2256,302 @@
       <c r="C82" t="inlineStr"/>
       <c r="D82" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM674.XQFQ.364</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM746.VTDZ.959</t>
         </is>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>HBM674.XQFQ.364</t>
+          <t>HBM746.VTDZ.959</t>
         </is>
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>nuclear_marker_or_stain</t>
+          <t>slide_id</t>
         </is>
       </c>
       <c r="C83" t="inlineStr"/>
       <c r="D83" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM674.XQFQ.364</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM746.VTDZ.959</t>
         </is>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>HBM674.XQFQ.364</t>
+          <t>HBM746.VTDZ.959</t>
         </is>
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>slide_id</t>
+          <t>source_storage_duration_unit</t>
         </is>
       </c>
       <c r="C84" t="inlineStr"/>
       <c r="D84" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM674.XQFQ.364</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM746.VTDZ.959</t>
         </is>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>HBM674.XQFQ.364</t>
+          <t>HBM746.VTDZ.959</t>
         </is>
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>source_storage_duration_unit</t>
+          <t>source_storage_duration_value</t>
         </is>
       </c>
       <c r="C85" t="inlineStr"/>
       <c r="D85" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM674.XQFQ.364</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM746.VTDZ.959</t>
         </is>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>HBM674.XQFQ.364</t>
+          <t>HBM747.SPWK.779</t>
         </is>
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>source_storage_duration_value</t>
+          <t>cell_boundary_marker_or_stain</t>
         </is>
       </c>
       <c r="C86" t="inlineStr"/>
       <c r="D86" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM674.XQFQ.364</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM747.SPWK.779</t>
         </is>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>HBM679.HJKX.869</t>
+          <t>HBM747.SPWK.779</t>
         </is>
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>cell_boundary_marker_or_stain</t>
+          <t>slide_id</t>
         </is>
       </c>
       <c r="C87" t="inlineStr"/>
       <c r="D87" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM679.HJKX.869</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM747.SPWK.779</t>
         </is>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>HBM679.HJKX.869</t>
+          <t>HBM747.SPWK.779</t>
         </is>
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>nuclear_marker_or_stain</t>
+          <t>source_storage_duration_unit</t>
         </is>
       </c>
       <c r="C88" t="inlineStr"/>
       <c r="D88" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM679.HJKX.869</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM747.SPWK.779</t>
         </is>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>HBM679.HJKX.869</t>
+          <t>HBM747.SPWK.779</t>
         </is>
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>slide_id</t>
+          <t>source_storage_duration_value</t>
         </is>
       </c>
       <c r="C89" t="inlineStr"/>
       <c r="D89" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM679.HJKX.869</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM747.SPWK.779</t>
         </is>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>HBM679.HJKX.869</t>
+          <t>HBM756.VJGX.949</t>
         </is>
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>source_storage_duration_unit</t>
+          <t>cell_boundary_marker_or_stain</t>
         </is>
       </c>
       <c r="C90" t="inlineStr"/>
       <c r="D90" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM679.HJKX.869</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM756.VJGX.949</t>
         </is>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>HBM679.HJKX.869</t>
+          <t>HBM756.VJGX.949</t>
         </is>
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>source_storage_duration_value</t>
+          <t>slide_id</t>
         </is>
       </c>
       <c r="C91" t="inlineStr"/>
       <c r="D91" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM679.HJKX.869</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM756.VJGX.949</t>
         </is>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>HBM696.JXRB.423</t>
+          <t>HBM756.VJGX.949</t>
         </is>
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>cell_boundary_marker_or_stain</t>
+          <t>source_storage_duration_unit</t>
         </is>
       </c>
       <c r="C92" t="inlineStr"/>
       <c r="D92" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM696.JXRB.423</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM756.VJGX.949</t>
         </is>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>HBM696.JXRB.423</t>
+          <t>HBM756.VJGX.949</t>
         </is>
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>nuclear_marker_or_stain</t>
+          <t>source_storage_duration_value</t>
         </is>
       </c>
       <c r="C93" t="inlineStr"/>
       <c r="D93" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM696.JXRB.423</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM756.VJGX.949</t>
         </is>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>HBM696.JXRB.423</t>
+          <t>HBM775.JPHP.327</t>
         </is>
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>slide_id</t>
+          <t>cell_boundary_marker_or_stain</t>
         </is>
       </c>
       <c r="C94" t="inlineStr"/>
       <c r="D94" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM696.JXRB.423</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM775.JPHP.327</t>
         </is>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>HBM696.JXRB.423</t>
+          <t>HBM775.JPHP.327</t>
         </is>
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>source_storage_duration_unit</t>
+          <t>slide_id</t>
         </is>
       </c>
       <c r="C95" t="inlineStr"/>
       <c r="D95" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM696.JXRB.423</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM775.JPHP.327</t>
         </is>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>HBM696.JXRB.423</t>
+          <t>HBM775.JPHP.327</t>
         </is>
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>source_storage_duration_value</t>
+          <t>source_storage_duration_unit</t>
         </is>
       </c>
       <c r="C96" t="inlineStr"/>
       <c r="D96" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM696.JXRB.423</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM775.JPHP.327</t>
         </is>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>HBM732.FZVZ.656</t>
+          <t>HBM775.JPHP.327</t>
         </is>
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>cell_boundary_marker_or_stain</t>
+          <t>source_storage_duration_value</t>
         </is>
       </c>
       <c r="C97" t="inlineStr"/>
       <c r="D97" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM732.FZVZ.656</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM775.JPHP.327</t>
         </is>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>HBM732.FZVZ.656</t>
+          <t>HBM828.LLCJ.983</t>
         </is>
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>nuclear_marker_or_stain</t>
+          <t>cell_boundary_marker_or_stain</t>
         </is>
       </c>
       <c r="C98" t="inlineStr"/>
       <c r="D98" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM732.FZVZ.656</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM828.LLCJ.983</t>
         </is>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>HBM732.FZVZ.656</t>
+          <t>HBM828.LLCJ.983</t>
         </is>
       </c>
       <c r="B99" t="inlineStr">
@@ -3412,14 +2562,14 @@
       <c r="C99" t="inlineStr"/>
       <c r="D99" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM732.FZVZ.656</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM828.LLCJ.983</t>
         </is>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>HBM732.FZVZ.656</t>
+          <t>HBM828.LLCJ.983</t>
         </is>
       </c>
       <c r="B100" t="inlineStr">
@@ -3430,14 +2580,14 @@
       <c r="C100" t="inlineStr"/>
       <c r="D100" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM732.FZVZ.656</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM828.LLCJ.983</t>
         </is>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>HBM732.FZVZ.656</t>
+          <t>HBM828.LLCJ.983</t>
         </is>
       </c>
       <c r="B101" t="inlineStr">
@@ -3448,14 +2598,14 @@
       <c r="C101" t="inlineStr"/>
       <c r="D101" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM732.FZVZ.656</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM828.LLCJ.983</t>
         </is>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>HBM746.VTDZ.959</t>
+          <t>HBM832.BXFF.523</t>
         </is>
       </c>
       <c r="B102" t="inlineStr">
@@ -3466,302 +2616,302 @@
       <c r="C102" t="inlineStr"/>
       <c r="D102" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM746.VTDZ.959</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM832.BXFF.523</t>
         </is>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>HBM746.VTDZ.959</t>
+          <t>HBM832.BXFF.523</t>
         </is>
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>nuclear_marker_or_stain</t>
+          <t>slide_id</t>
         </is>
       </c>
       <c r="C103" t="inlineStr"/>
       <c r="D103" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM746.VTDZ.959</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM832.BXFF.523</t>
         </is>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>HBM746.VTDZ.959</t>
+          <t>HBM832.BXFF.523</t>
         </is>
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>slide_id</t>
+          <t>source_storage_duration_unit</t>
         </is>
       </c>
       <c r="C104" t="inlineStr"/>
       <c r="D104" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM746.VTDZ.959</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM832.BXFF.523</t>
         </is>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>HBM746.VTDZ.959</t>
+          <t>HBM832.BXFF.523</t>
         </is>
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>source_storage_duration_unit</t>
+          <t>source_storage_duration_value</t>
         </is>
       </c>
       <c r="C105" t="inlineStr"/>
       <c r="D105" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM746.VTDZ.959</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM832.BXFF.523</t>
         </is>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>HBM746.VTDZ.959</t>
+          <t>HBM867.NMXL.794</t>
         </is>
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>source_storage_duration_value</t>
+          <t>cell_boundary_marker_or_stain</t>
         </is>
       </c>
       <c r="C106" t="inlineStr"/>
       <c r="D106" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM746.VTDZ.959</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM867.NMXL.794</t>
         </is>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>HBM747.SPWK.779</t>
+          <t>HBM867.NMXL.794</t>
         </is>
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>cell_boundary_marker_or_stain</t>
+          <t>slide_id</t>
         </is>
       </c>
       <c r="C107" t="inlineStr"/>
       <c r="D107" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM747.SPWK.779</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM867.NMXL.794</t>
         </is>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>HBM747.SPWK.779</t>
+          <t>HBM867.NMXL.794</t>
         </is>
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>nuclear_marker_or_stain</t>
+          <t>source_storage_duration_unit</t>
         </is>
       </c>
       <c r="C108" t="inlineStr"/>
       <c r="D108" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM747.SPWK.779</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM867.NMXL.794</t>
         </is>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>HBM747.SPWK.779</t>
+          <t>HBM867.NMXL.794</t>
         </is>
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>slide_id</t>
+          <t>source_storage_duration_value</t>
         </is>
       </c>
       <c r="C109" t="inlineStr"/>
       <c r="D109" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM747.SPWK.779</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM867.NMXL.794</t>
         </is>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>HBM747.SPWK.779</t>
+          <t>HBM875.SBHJ.939</t>
         </is>
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>source_storage_duration_unit</t>
+          <t>cell_boundary_marker_or_stain</t>
         </is>
       </c>
       <c r="C110" t="inlineStr"/>
       <c r="D110" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM747.SPWK.779</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM875.SBHJ.939</t>
         </is>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>HBM747.SPWK.779</t>
+          <t>HBM875.SBHJ.939</t>
         </is>
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>source_storage_duration_value</t>
+          <t>slide_id</t>
         </is>
       </c>
       <c r="C111" t="inlineStr"/>
       <c r="D111" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM747.SPWK.779</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM875.SBHJ.939</t>
         </is>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>HBM756.VJGX.949</t>
+          <t>HBM875.SBHJ.939</t>
         </is>
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>cell_boundary_marker_or_stain</t>
+          <t>source_storage_duration_unit</t>
         </is>
       </c>
       <c r="C112" t="inlineStr"/>
       <c r="D112" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM756.VJGX.949</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM875.SBHJ.939</t>
         </is>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>HBM756.VJGX.949</t>
+          <t>HBM875.SBHJ.939</t>
         </is>
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>nuclear_marker_or_stain</t>
+          <t>source_storage_duration_value</t>
         </is>
       </c>
       <c r="C113" t="inlineStr"/>
       <c r="D113" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM756.VJGX.949</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM875.SBHJ.939</t>
         </is>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t>HBM756.VJGX.949</t>
+          <t>HBM948.WLJK.772</t>
         </is>
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>slide_id</t>
+          <t>cell_boundary_marker_or_stain</t>
         </is>
       </c>
       <c r="C114" t="inlineStr"/>
       <c r="D114" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM756.VJGX.949</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM948.WLJK.772</t>
         </is>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t>HBM756.VJGX.949</t>
+          <t>HBM948.WLJK.772</t>
         </is>
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>source_storage_duration_unit</t>
+          <t>slide_id</t>
         </is>
       </c>
       <c r="C115" t="inlineStr"/>
       <c r="D115" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM756.VJGX.949</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM948.WLJK.772</t>
         </is>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="inlineStr">
         <is>
-          <t>HBM756.VJGX.949</t>
+          <t>HBM948.WLJK.772</t>
         </is>
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>source_storage_duration_value</t>
+          <t>source_storage_duration_unit</t>
         </is>
       </c>
       <c r="C116" t="inlineStr"/>
       <c r="D116" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM756.VJGX.949</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM948.WLJK.772</t>
         </is>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="inlineStr">
         <is>
-          <t>HBM775.JPHP.327</t>
+          <t>HBM948.WLJK.772</t>
         </is>
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>cell_boundary_marker_or_stain</t>
+          <t>source_storage_duration_value</t>
         </is>
       </c>
       <c r="C117" t="inlineStr"/>
       <c r="D117" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM775.JPHP.327</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM948.WLJK.772</t>
         </is>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="inlineStr">
         <is>
-          <t>HBM775.JPHP.327</t>
+          <t>HBM975.FVCG.922</t>
         </is>
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>nuclear_marker_or_stain</t>
+          <t>cell_boundary_marker_or_stain</t>
         </is>
       </c>
       <c r="C118" t="inlineStr"/>
       <c r="D118" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM775.JPHP.327</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM975.FVCG.922</t>
         </is>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="inlineStr">
         <is>
-          <t>HBM775.JPHP.327</t>
+          <t>HBM975.FVCG.922</t>
         </is>
       </c>
       <c r="B119" t="inlineStr">
@@ -3772,14 +2922,14 @@
       <c r="C119" t="inlineStr"/>
       <c r="D119" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM775.JPHP.327</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM975.FVCG.922</t>
         </is>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="inlineStr">
         <is>
-          <t>HBM775.JPHP.327</t>
+          <t>HBM975.FVCG.922</t>
         </is>
       </c>
       <c r="B120" t="inlineStr">
@@ -3790,14 +2940,14 @@
       <c r="C120" t="inlineStr"/>
       <c r="D120" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM775.JPHP.327</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM975.FVCG.922</t>
         </is>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="inlineStr">
         <is>
-          <t>HBM775.JPHP.327</t>
+          <t>HBM975.FVCG.922</t>
         </is>
       </c>
       <c r="B121" t="inlineStr">
@@ -3808,14 +2958,14 @@
       <c r="C121" t="inlineStr"/>
       <c r="D121" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM775.JPHP.327</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM975.FVCG.922</t>
         </is>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="inlineStr">
         <is>
-          <t>HBM828.LLCJ.983</t>
+          <t>HBM993.ZZWK.542</t>
         </is>
       </c>
       <c r="B122" t="inlineStr">
@@ -3826,717 +2976,141 @@
       <c r="C122" t="inlineStr"/>
       <c r="D122" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM828.LLCJ.983</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM993.ZZWK.542</t>
         </is>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="inlineStr">
         <is>
-          <t>HBM828.LLCJ.983</t>
+          <t>HBM993.ZZWK.542</t>
         </is>
       </c>
       <c r="B123" t="inlineStr">
         <is>
-          <t>nuclear_marker_or_stain</t>
+          <t>slide_id</t>
         </is>
       </c>
       <c r="C123" t="inlineStr"/>
       <c r="D123" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM828.LLCJ.983</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM993.ZZWK.542</t>
         </is>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="inlineStr">
         <is>
-          <t>HBM828.LLCJ.983</t>
+          <t>HBM993.ZZWK.542</t>
         </is>
       </c>
       <c r="B124" t="inlineStr">
         <is>
-          <t>slide_id</t>
+          <t>source_storage_duration_unit</t>
         </is>
       </c>
       <c r="C124" t="inlineStr"/>
       <c r="D124" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM828.LLCJ.983</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM993.ZZWK.542</t>
         </is>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="inlineStr">
         <is>
-          <t>HBM828.LLCJ.983</t>
+          <t>HBM993.ZZWK.542</t>
         </is>
       </c>
       <c r="B125" t="inlineStr">
         <is>
-          <t>source_storage_duration_unit</t>
+          <t>source_storage_duration_value</t>
         </is>
       </c>
       <c r="C125" t="inlineStr"/>
       <c r="D125" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM828.LLCJ.983</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM993.ZZWK.542</t>
         </is>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="inlineStr">
         <is>
-          <t>HBM828.LLCJ.983</t>
+          <t>HBM999.CXFH.954</t>
         </is>
       </c>
       <c r="B126" t="inlineStr">
         <is>
-          <t>source_storage_duration_value</t>
+          <t>cell_boundary_marker_or_stain</t>
         </is>
       </c>
       <c r="C126" t="inlineStr"/>
       <c r="D126" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM828.LLCJ.983</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM999.CXFH.954</t>
         </is>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="inlineStr">
         <is>
-          <t>HBM832.BXFF.523</t>
+          <t>HBM999.CXFH.954</t>
         </is>
       </c>
       <c r="B127" t="inlineStr">
         <is>
-          <t>cell_boundary_marker_or_stain</t>
+          <t>slide_id</t>
         </is>
       </c>
       <c r="C127" t="inlineStr"/>
       <c r="D127" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM832.BXFF.523</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM999.CXFH.954</t>
         </is>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="inlineStr">
         <is>
-          <t>HBM832.BXFF.523</t>
+          <t>HBM999.CXFH.954</t>
         </is>
       </c>
       <c r="B128" t="inlineStr">
         <is>
-          <t>nuclear_marker_or_stain</t>
+          <t>source_storage_duration_unit</t>
         </is>
       </c>
       <c r="C128" t="inlineStr"/>
       <c r="D128" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM832.BXFF.523</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM999.CXFH.954</t>
         </is>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="inlineStr">
         <is>
-          <t>HBM832.BXFF.523</t>
+          <t>HBM999.CXFH.954</t>
         </is>
       </c>
       <c r="B129" t="inlineStr">
         <is>
-          <t>slide_id</t>
+          <t>source_storage_duration_value</t>
         </is>
       </c>
       <c r="C129" t="inlineStr"/>
       <c r="D129" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM832.BXFF.523</t>
-        </is>
-      </c>
-    </row>
-    <row r="130">
-      <c r="A130" t="inlineStr">
-        <is>
-          <t>HBM832.BXFF.523</t>
-        </is>
-      </c>
-      <c r="B130" t="inlineStr">
-        <is>
-          <t>source_storage_duration_unit</t>
-        </is>
-      </c>
-      <c r="C130" t="inlineStr"/>
-      <c r="D130" t="inlineStr">
-        <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM832.BXFF.523</t>
-        </is>
-      </c>
-    </row>
-    <row r="131">
-      <c r="A131" t="inlineStr">
-        <is>
-          <t>HBM832.BXFF.523</t>
-        </is>
-      </c>
-      <c r="B131" t="inlineStr">
-        <is>
-          <t>source_storage_duration_value</t>
-        </is>
-      </c>
-      <c r="C131" t="inlineStr"/>
-      <c r="D131" t="inlineStr">
-        <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM832.BXFF.523</t>
-        </is>
-      </c>
-    </row>
-    <row r="132">
-      <c r="A132" t="inlineStr">
-        <is>
-          <t>HBM867.NMXL.794</t>
-        </is>
-      </c>
-      <c r="B132" t="inlineStr">
-        <is>
-          <t>cell_boundary_marker_or_stain</t>
-        </is>
-      </c>
-      <c r="C132" t="inlineStr"/>
-      <c r="D132" t="inlineStr">
-        <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM867.NMXL.794</t>
-        </is>
-      </c>
-    </row>
-    <row r="133">
-      <c r="A133" t="inlineStr">
-        <is>
-          <t>HBM867.NMXL.794</t>
-        </is>
-      </c>
-      <c r="B133" t="inlineStr">
-        <is>
-          <t>nuclear_marker_or_stain</t>
-        </is>
-      </c>
-      <c r="C133" t="inlineStr"/>
-      <c r="D133" t="inlineStr">
-        <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM867.NMXL.794</t>
-        </is>
-      </c>
-    </row>
-    <row r="134">
-      <c r="A134" t="inlineStr">
-        <is>
-          <t>HBM867.NMXL.794</t>
-        </is>
-      </c>
-      <c r="B134" t="inlineStr">
-        <is>
-          <t>slide_id</t>
-        </is>
-      </c>
-      <c r="C134" t="inlineStr"/>
-      <c r="D134" t="inlineStr">
-        <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM867.NMXL.794</t>
-        </is>
-      </c>
-    </row>
-    <row r="135">
-      <c r="A135" t="inlineStr">
-        <is>
-          <t>HBM867.NMXL.794</t>
-        </is>
-      </c>
-      <c r="B135" t="inlineStr">
-        <is>
-          <t>source_storage_duration_unit</t>
-        </is>
-      </c>
-      <c r="C135" t="inlineStr"/>
-      <c r="D135" t="inlineStr">
-        <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM867.NMXL.794</t>
-        </is>
-      </c>
-    </row>
-    <row r="136">
-      <c r="A136" t="inlineStr">
-        <is>
-          <t>HBM867.NMXL.794</t>
-        </is>
-      </c>
-      <c r="B136" t="inlineStr">
-        <is>
-          <t>source_storage_duration_value</t>
-        </is>
-      </c>
-      <c r="C136" t="inlineStr"/>
-      <c r="D136" t="inlineStr">
-        <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM867.NMXL.794</t>
-        </is>
-      </c>
-    </row>
-    <row r="137">
-      <c r="A137" t="inlineStr">
-        <is>
-          <t>HBM875.SBHJ.939</t>
-        </is>
-      </c>
-      <c r="B137" t="inlineStr">
-        <is>
-          <t>cell_boundary_marker_or_stain</t>
-        </is>
-      </c>
-      <c r="C137" t="inlineStr"/>
-      <c r="D137" t="inlineStr">
-        <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM875.SBHJ.939</t>
-        </is>
-      </c>
-    </row>
-    <row r="138">
-      <c r="A138" t="inlineStr">
-        <is>
-          <t>HBM875.SBHJ.939</t>
-        </is>
-      </c>
-      <c r="B138" t="inlineStr">
-        <is>
-          <t>nuclear_marker_or_stain</t>
-        </is>
-      </c>
-      <c r="C138" t="inlineStr"/>
-      <c r="D138" t="inlineStr">
-        <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM875.SBHJ.939</t>
-        </is>
-      </c>
-    </row>
-    <row r="139">
-      <c r="A139" t="inlineStr">
-        <is>
-          <t>HBM875.SBHJ.939</t>
-        </is>
-      </c>
-      <c r="B139" t="inlineStr">
-        <is>
-          <t>slide_id</t>
-        </is>
-      </c>
-      <c r="C139" t="inlineStr"/>
-      <c r="D139" t="inlineStr">
-        <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM875.SBHJ.939</t>
-        </is>
-      </c>
-    </row>
-    <row r="140">
-      <c r="A140" t="inlineStr">
-        <is>
-          <t>HBM875.SBHJ.939</t>
-        </is>
-      </c>
-      <c r="B140" t="inlineStr">
-        <is>
-          <t>source_storage_duration_unit</t>
-        </is>
-      </c>
-      <c r="C140" t="inlineStr"/>
-      <c r="D140" t="inlineStr">
-        <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM875.SBHJ.939</t>
-        </is>
-      </c>
-    </row>
-    <row r="141">
-      <c r="A141" t="inlineStr">
-        <is>
-          <t>HBM875.SBHJ.939</t>
-        </is>
-      </c>
-      <c r="B141" t="inlineStr">
-        <is>
-          <t>source_storage_duration_value</t>
-        </is>
-      </c>
-      <c r="C141" t="inlineStr"/>
-      <c r="D141" t="inlineStr">
-        <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM875.SBHJ.939</t>
-        </is>
-      </c>
-    </row>
-    <row r="142">
-      <c r="A142" t="inlineStr">
-        <is>
-          <t>HBM948.WLJK.772</t>
-        </is>
-      </c>
-      <c r="B142" t="inlineStr">
-        <is>
-          <t>cell_boundary_marker_or_stain</t>
-        </is>
-      </c>
-      <c r="C142" t="inlineStr"/>
-      <c r="D142" t="inlineStr">
-        <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM948.WLJK.772</t>
-        </is>
-      </c>
-    </row>
-    <row r="143">
-      <c r="A143" t="inlineStr">
-        <is>
-          <t>HBM948.WLJK.772</t>
-        </is>
-      </c>
-      <c r="B143" t="inlineStr">
-        <is>
-          <t>nuclear_marker_or_stain</t>
-        </is>
-      </c>
-      <c r="C143" t="inlineStr"/>
-      <c r="D143" t="inlineStr">
-        <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM948.WLJK.772</t>
-        </is>
-      </c>
-    </row>
-    <row r="144">
-      <c r="A144" t="inlineStr">
-        <is>
-          <t>HBM948.WLJK.772</t>
-        </is>
-      </c>
-      <c r="B144" t="inlineStr">
-        <is>
-          <t>slide_id</t>
-        </is>
-      </c>
-      <c r="C144" t="inlineStr"/>
-      <c r="D144" t="inlineStr">
-        <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM948.WLJK.772</t>
-        </is>
-      </c>
-    </row>
-    <row r="145">
-      <c r="A145" t="inlineStr">
-        <is>
-          <t>HBM948.WLJK.772</t>
-        </is>
-      </c>
-      <c r="B145" t="inlineStr">
-        <is>
-          <t>source_storage_duration_unit</t>
-        </is>
-      </c>
-      <c r="C145" t="inlineStr"/>
-      <c r="D145" t="inlineStr">
-        <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM948.WLJK.772</t>
-        </is>
-      </c>
-    </row>
-    <row r="146">
-      <c r="A146" t="inlineStr">
-        <is>
-          <t>HBM948.WLJK.772</t>
-        </is>
-      </c>
-      <c r="B146" t="inlineStr">
-        <is>
-          <t>source_storage_duration_value</t>
-        </is>
-      </c>
-      <c r="C146" t="inlineStr"/>
-      <c r="D146" t="inlineStr">
-        <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM948.WLJK.772</t>
-        </is>
-      </c>
-    </row>
-    <row r="147">
-      <c r="A147" t="inlineStr">
-        <is>
-          <t>HBM975.FVCG.922</t>
-        </is>
-      </c>
-      <c r="B147" t="inlineStr">
-        <is>
-          <t>cell_boundary_marker_or_stain</t>
-        </is>
-      </c>
-      <c r="C147" t="inlineStr"/>
-      <c r="D147" t="inlineStr">
-        <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM975.FVCG.922</t>
-        </is>
-      </c>
-    </row>
-    <row r="148">
-      <c r="A148" t="inlineStr">
-        <is>
-          <t>HBM975.FVCG.922</t>
-        </is>
-      </c>
-      <c r="B148" t="inlineStr">
-        <is>
-          <t>nuclear_marker_or_stain</t>
-        </is>
-      </c>
-      <c r="C148" t="inlineStr"/>
-      <c r="D148" t="inlineStr">
-        <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM975.FVCG.922</t>
-        </is>
-      </c>
-    </row>
-    <row r="149">
-      <c r="A149" t="inlineStr">
-        <is>
-          <t>HBM975.FVCG.922</t>
-        </is>
-      </c>
-      <c r="B149" t="inlineStr">
-        <is>
-          <t>slide_id</t>
-        </is>
-      </c>
-      <c r="C149" t="inlineStr"/>
-      <c r="D149" t="inlineStr">
-        <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM975.FVCG.922</t>
-        </is>
-      </c>
-    </row>
-    <row r="150">
-      <c r="A150" t="inlineStr">
-        <is>
-          <t>HBM975.FVCG.922</t>
-        </is>
-      </c>
-      <c r="B150" t="inlineStr">
-        <is>
-          <t>source_storage_duration_unit</t>
-        </is>
-      </c>
-      <c r="C150" t="inlineStr"/>
-      <c r="D150" t="inlineStr">
-        <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM975.FVCG.922</t>
-        </is>
-      </c>
-    </row>
-    <row r="151">
-      <c r="A151" t="inlineStr">
-        <is>
-          <t>HBM975.FVCG.922</t>
-        </is>
-      </c>
-      <c r="B151" t="inlineStr">
-        <is>
-          <t>source_storage_duration_value</t>
-        </is>
-      </c>
-      <c r="C151" t="inlineStr"/>
-      <c r="D151" t="inlineStr">
-        <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM975.FVCG.922</t>
-        </is>
-      </c>
-    </row>
-    <row r="152">
-      <c r="A152" t="inlineStr">
-        <is>
-          <t>HBM993.ZZWK.542</t>
-        </is>
-      </c>
-      <c r="B152" t="inlineStr">
-        <is>
-          <t>cell_boundary_marker_or_stain</t>
-        </is>
-      </c>
-      <c r="C152" t="inlineStr"/>
-      <c r="D152" t="inlineStr">
-        <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM993.ZZWK.542</t>
-        </is>
-      </c>
-    </row>
-    <row r="153">
-      <c r="A153" t="inlineStr">
-        <is>
-          <t>HBM993.ZZWK.542</t>
-        </is>
-      </c>
-      <c r="B153" t="inlineStr">
-        <is>
-          <t>nuclear_marker_or_stain</t>
-        </is>
-      </c>
-      <c r="C153" t="inlineStr"/>
-      <c r="D153" t="inlineStr">
-        <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM993.ZZWK.542</t>
-        </is>
-      </c>
-    </row>
-    <row r="154">
-      <c r="A154" t="inlineStr">
-        <is>
-          <t>HBM993.ZZWK.542</t>
-        </is>
-      </c>
-      <c r="B154" t="inlineStr">
-        <is>
-          <t>slide_id</t>
-        </is>
-      </c>
-      <c r="C154" t="inlineStr"/>
-      <c r="D154" t="inlineStr">
-        <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM993.ZZWK.542</t>
-        </is>
-      </c>
-    </row>
-    <row r="155">
-      <c r="A155" t="inlineStr">
-        <is>
-          <t>HBM993.ZZWK.542</t>
-        </is>
-      </c>
-      <c r="B155" t="inlineStr">
-        <is>
-          <t>source_storage_duration_unit</t>
-        </is>
-      </c>
-      <c r="C155" t="inlineStr"/>
-      <c r="D155" t="inlineStr">
-        <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM993.ZZWK.542</t>
-        </is>
-      </c>
-    </row>
-    <row r="156">
-      <c r="A156" t="inlineStr">
-        <is>
-          <t>HBM993.ZZWK.542</t>
-        </is>
-      </c>
-      <c r="B156" t="inlineStr">
-        <is>
-          <t>source_storage_duration_value</t>
-        </is>
-      </c>
-      <c r="C156" t="inlineStr"/>
-      <c r="D156" t="inlineStr">
-        <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM993.ZZWK.542</t>
-        </is>
-      </c>
-    </row>
-    <row r="157">
-      <c r="A157" t="inlineStr">
-        <is>
-          <t>HBM999.CXFH.954</t>
-        </is>
-      </c>
-      <c r="B157" t="inlineStr">
-        <is>
-          <t>cell_boundary_marker_or_stain</t>
-        </is>
-      </c>
-      <c r="C157" t="inlineStr"/>
-      <c r="D157" t="inlineStr">
-        <is>
           <t>https://portal.hubmapconsortium.org/browse/HBM999.CXFH.954</t>
         </is>
       </c>
     </row>
-    <row r="158">
-      <c r="A158" t="inlineStr">
-        <is>
-          <t>HBM999.CXFH.954</t>
-        </is>
-      </c>
-      <c r="B158" t="inlineStr">
-        <is>
-          <t>nuclear_marker_or_stain</t>
-        </is>
-      </c>
-      <c r="C158" t="inlineStr"/>
-      <c r="D158" t="inlineStr">
-        <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM999.CXFH.954</t>
-        </is>
-      </c>
-    </row>
-    <row r="159">
-      <c r="A159" t="inlineStr">
-        <is>
-          <t>HBM999.CXFH.954</t>
-        </is>
-      </c>
-      <c r="B159" t="inlineStr">
-        <is>
-          <t>slide_id</t>
-        </is>
-      </c>
-      <c r="C159" t="inlineStr"/>
-      <c r="D159" t="inlineStr">
-        <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM999.CXFH.954</t>
-        </is>
-      </c>
-    </row>
-    <row r="160">
-      <c r="A160" t="inlineStr">
-        <is>
-          <t>HBM999.CXFH.954</t>
-        </is>
-      </c>
-      <c r="B160" t="inlineStr">
-        <is>
-          <t>source_storage_duration_unit</t>
-        </is>
-      </c>
-      <c r="C160" t="inlineStr"/>
-      <c r="D160" t="inlineStr">
-        <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM999.CXFH.954</t>
-        </is>
-      </c>
-    </row>
-    <row r="161">
-      <c r="A161" t="inlineStr">
-        <is>
-          <t>HBM999.CXFH.954</t>
-        </is>
-      </c>
-      <c r="B161" t="inlineStr">
-        <is>
-          <t>source_storage_duration_value</t>
-        </is>
-      </c>
-      <c r="C161" t="inlineStr"/>
-      <c r="D161" t="inlineStr">
-        <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM999.CXFH.954</t>
-        </is>
-      </c>
-    </row>
   </sheetData>
-  <autoFilter ref="A1:D161"/>
+  <autoFilter ref="A1:D129"/>
   <dataValidations count="1">
-    <dataValidation sqref="C5 C10 C15 C20 C25 C30 C35 C40 C45 C50 C55 C60 C65 C70 C75 C80 C85 C90 C95 C100 C105 C110 C115 C120 C125 C130 C135 C140 C145 C150 C155 C160" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" errorTitle="Invalid Entry" error="Your entry is not in the list" promptTitle="List Selection" prompt="Please select from the list" type="list">
-      <formula1>_validation_data!$C$1:$C$5</formula1>
+    <dataValidation sqref="C4 C8 C12 C16 C20 C24 C28 C32 C36 C40 C44 C48 C52 C56 C60 C64 C68 C72 C76 C80 C84 C88 C92 C96 C100 C104 C108 C112 C116 C120 C124 C128" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" errorTitle="Invalid Entry" error="Your entry is not in the list" promptTitle="List Selection" prompt="Please select from the list" type="list">
+      <formula1>_validation_data!$B$1:$B$5</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/metadata/celldive/todo/General Electric RTI (Cell DIVE).xlsx
+++ b/metadata/celldive/todo/General Electric RTI (Cell DIVE).xlsx
@@ -13,8 +13,8 @@
     <sheet name="Invalid Input Pattern" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'Non-Standard Value'!$A$1:$E$3</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'Missing Required Value'!$A$1:$D$129</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'Non-Standard Value'!$A$1:$E$11</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'Missing Required Value'!$A$1:$D$161</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">'Invalid Input Pattern'!$A$1:$F$33</definedName>
   </definedNames>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -674,7 +674,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E3"/>
+  <dimension ref="A1:E11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -712,7 +712,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>HBM388.RPTF.754</t>
+          <t>HBM258.LPGK.484</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -728,14 +728,14 @@
       <c r="D2" t="inlineStr"/>
       <c r="E2" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM388.RPTF.754</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM258.LPGK.484</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>HBM397.DNSQ.977</t>
+          <t>HBM289.XGJN.789</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -751,14 +751,198 @@
       <c r="D3" t="inlineStr"/>
       <c r="E3" t="inlineStr">
         <is>
+          <t>https://portal.hubmapconsortium.org/browse/HBM289.XGJN.789</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>HBM388.RPTF.754</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>acquisition_instrument_vendor</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Leica</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr"/>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>https://portal.hubmapconsortium.org/browse/HBM388.RPTF.754</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>HBM397.DNSQ.977</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>acquisition_instrument_vendor</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Leica</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr"/>
+      <c r="E5" t="inlineStr">
+        <is>
           <t>https://portal.hubmapconsortium.org/browse/HBM397.DNSQ.977</t>
         </is>
       </c>
     </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>HBM397.WXXH.736</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>acquisition_instrument_vendor</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Leica</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr"/>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>https://portal.hubmapconsortium.org/browse/HBM397.WXXH.736</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>HBM657.CDHD.889</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>acquisition_instrument_vendor</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Leica</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr"/>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>https://portal.hubmapconsortium.org/browse/HBM657.CDHD.889</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>HBM696.JXRB.423</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>acquisition_instrument_vendor</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Leica</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr"/>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>https://portal.hubmapconsortium.org/browse/HBM696.JXRB.423</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>HBM775.JPHP.327</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>acquisition_instrument_vendor</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Leica</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr"/>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>https://portal.hubmapconsortium.org/browse/HBM775.JPHP.327</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>HBM993.ZZWK.542</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>acquisition_instrument_vendor</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Leica</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr"/>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>https://portal.hubmapconsortium.org/browse/HBM993.ZZWK.542</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>HBM999.CXFH.954</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>acquisition_instrument_vendor</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Leica</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr"/>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>https://portal.hubmapconsortium.org/browse/HBM999.CXFH.954</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:E3"/>
+  <autoFilter ref="A1:E11"/>
   <dataValidations count="1">
-    <dataValidation sqref="D2 D3" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" errorTitle="Invalid Entry" error="Your entry is not in the list" promptTitle="List Selection" prompt="Please select from the list" type="list">
+    <dataValidation sqref="D2 D3 D4 D5 D6 D7 D8 D9 D10 D11" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" errorTitle="Invalid Entry" error="Your entry is not in the list" promptTitle="List Selection" prompt="Please select from the list" type="list">
       <formula1>_validation_data!$A$1:$A$30</formula1>
     </dataValidation>
   </dataValidations>
@@ -772,7 +956,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D129"/>
+  <dimension ref="A1:D161"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -828,7 +1012,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>slide_id</t>
+          <t>nuclear_marker_or_stain</t>
         </is>
       </c>
       <c r="C3" t="inlineStr"/>
@@ -846,7 +1030,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>source_storage_duration_unit</t>
+          <t>slide_id</t>
         </is>
       </c>
       <c r="C4" t="inlineStr"/>
@@ -864,7 +1048,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>source_storage_duration_value</t>
+          <t>source_storage_duration_unit</t>
         </is>
       </c>
       <c r="C5" t="inlineStr"/>
@@ -877,18 +1061,18 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>HBM238.ZKPC.934</t>
+          <t>HBM234.DHWB.478</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>cell_boundary_marker_or_stain</t>
+          <t>source_storage_duration_value</t>
         </is>
       </c>
       <c r="C6" t="inlineStr"/>
       <c r="D6" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM238.ZKPC.934</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM234.DHWB.478</t>
         </is>
       </c>
     </row>
@@ -900,7 +1084,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>slide_id</t>
+          <t>cell_boundary_marker_or_stain</t>
         </is>
       </c>
       <c r="C7" t="inlineStr"/>
@@ -918,7 +1102,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>source_storage_duration_unit</t>
+          <t>nuclear_marker_or_stain</t>
         </is>
       </c>
       <c r="C8" t="inlineStr"/>
@@ -936,7 +1120,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>source_storage_duration_value</t>
+          <t>slide_id</t>
         </is>
       </c>
       <c r="C9" t="inlineStr"/>
@@ -949,36 +1133,36 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>HBM258.LPGK.484</t>
+          <t>HBM238.ZKPC.934</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>cell_boundary_marker_or_stain</t>
+          <t>source_storage_duration_unit</t>
         </is>
       </c>
       <c r="C10" t="inlineStr"/>
       <c r="D10" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM258.LPGK.484</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM238.ZKPC.934</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>HBM258.LPGK.484</t>
+          <t>HBM238.ZKPC.934</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>slide_id</t>
+          <t>source_storage_duration_value</t>
         </is>
       </c>
       <c r="C11" t="inlineStr"/>
       <c r="D11" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM258.LPGK.484</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM238.ZKPC.934</t>
         </is>
       </c>
     </row>
@@ -990,7 +1174,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>source_storage_duration_unit</t>
+          <t>cell_boundary_marker_or_stain</t>
         </is>
       </c>
       <c r="C12" t="inlineStr"/>
@@ -1008,7 +1192,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>source_storage_duration_value</t>
+          <t>nuclear_marker_or_stain</t>
         </is>
       </c>
       <c r="C13" t="inlineStr"/>
@@ -1021,54 +1205,54 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>HBM289.XGJN.789</t>
+          <t>HBM258.LPGK.484</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>cell_boundary_marker_or_stain</t>
+          <t>slide_id</t>
         </is>
       </c>
       <c r="C14" t="inlineStr"/>
       <c r="D14" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM289.XGJN.789</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM258.LPGK.484</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>HBM289.XGJN.789</t>
+          <t>HBM258.LPGK.484</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>slide_id</t>
+          <t>source_storage_duration_unit</t>
         </is>
       </c>
       <c r="C15" t="inlineStr"/>
       <c r="D15" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM289.XGJN.789</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM258.LPGK.484</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>HBM289.XGJN.789</t>
+          <t>HBM258.LPGK.484</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>source_storage_duration_unit</t>
+          <t>source_storage_duration_value</t>
         </is>
       </c>
       <c r="C16" t="inlineStr"/>
       <c r="D16" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM289.XGJN.789</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM258.LPGK.484</t>
         </is>
       </c>
     </row>
@@ -1080,7 +1264,7 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>source_storage_duration_value</t>
+          <t>cell_boundary_marker_or_stain</t>
         </is>
       </c>
       <c r="C17" t="inlineStr"/>
@@ -1093,25 +1277,25 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>HBM388.RPTF.754</t>
+          <t>HBM289.XGJN.789</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>cell_boundary_marker_or_stain</t>
+          <t>nuclear_marker_or_stain</t>
         </is>
       </c>
       <c r="C18" t="inlineStr"/>
       <c r="D18" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM388.RPTF.754</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM289.XGJN.789</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>HBM388.RPTF.754</t>
+          <t>HBM289.XGJN.789</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
@@ -1122,14 +1306,14 @@
       <c r="C19" t="inlineStr"/>
       <c r="D19" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM388.RPTF.754</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM289.XGJN.789</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>HBM388.RPTF.754</t>
+          <t>HBM289.XGJN.789</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
@@ -1140,14 +1324,14 @@
       <c r="C20" t="inlineStr"/>
       <c r="D20" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM388.RPTF.754</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM289.XGJN.789</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>HBM388.RPTF.754</t>
+          <t>HBM289.XGJN.789</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
@@ -1158,14 +1342,14 @@
       <c r="C21" t="inlineStr"/>
       <c r="D21" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM388.RPTF.754</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM289.XGJN.789</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>HBM397.DNSQ.977</t>
+          <t>HBM388.RPTF.754</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
@@ -1176,302 +1360,302 @@
       <c r="C22" t="inlineStr"/>
       <c r="D22" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM397.DNSQ.977</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM388.RPTF.754</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>HBM397.DNSQ.977</t>
+          <t>HBM388.RPTF.754</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>slide_id</t>
+          <t>nuclear_marker_or_stain</t>
         </is>
       </c>
       <c r="C23" t="inlineStr"/>
       <c r="D23" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM397.DNSQ.977</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM388.RPTF.754</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>HBM397.DNSQ.977</t>
+          <t>HBM388.RPTF.754</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>source_storage_duration_unit</t>
+          <t>slide_id</t>
         </is>
       </c>
       <c r="C24" t="inlineStr"/>
       <c r="D24" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM397.DNSQ.977</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM388.RPTF.754</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>HBM397.DNSQ.977</t>
+          <t>HBM388.RPTF.754</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>source_storage_duration_value</t>
+          <t>source_storage_duration_unit</t>
         </is>
       </c>
       <c r="C25" t="inlineStr"/>
       <c r="D25" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM397.DNSQ.977</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM388.RPTF.754</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>HBM397.WXXH.736</t>
+          <t>HBM388.RPTF.754</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>cell_boundary_marker_or_stain</t>
+          <t>source_storage_duration_value</t>
         </is>
       </c>
       <c r="C26" t="inlineStr"/>
       <c r="D26" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM397.WXXH.736</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM388.RPTF.754</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>HBM397.WXXH.736</t>
+          <t>HBM397.DNSQ.977</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>slide_id</t>
+          <t>cell_boundary_marker_or_stain</t>
         </is>
       </c>
       <c r="C27" t="inlineStr"/>
       <c r="D27" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM397.WXXH.736</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM397.DNSQ.977</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>HBM397.WXXH.736</t>
+          <t>HBM397.DNSQ.977</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>source_storage_duration_unit</t>
+          <t>nuclear_marker_or_stain</t>
         </is>
       </c>
       <c r="C28" t="inlineStr"/>
       <c r="D28" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM397.WXXH.736</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM397.DNSQ.977</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>HBM397.WXXH.736</t>
+          <t>HBM397.DNSQ.977</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>source_storage_duration_value</t>
+          <t>slide_id</t>
         </is>
       </c>
       <c r="C29" t="inlineStr"/>
       <c r="D29" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM397.WXXH.736</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM397.DNSQ.977</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>HBM398.NCVN.256</t>
+          <t>HBM397.DNSQ.977</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>cell_boundary_marker_or_stain</t>
+          <t>source_storage_duration_unit</t>
         </is>
       </c>
       <c r="C30" t="inlineStr"/>
       <c r="D30" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM398.NCVN.256</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM397.DNSQ.977</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>HBM398.NCVN.256</t>
+          <t>HBM397.DNSQ.977</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>slide_id</t>
+          <t>source_storage_duration_value</t>
         </is>
       </c>
       <c r="C31" t="inlineStr"/>
       <c r="D31" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM398.NCVN.256</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM397.DNSQ.977</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>HBM398.NCVN.256</t>
+          <t>HBM397.WXXH.736</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>source_storage_duration_unit</t>
+          <t>cell_boundary_marker_or_stain</t>
         </is>
       </c>
       <c r="C32" t="inlineStr"/>
       <c r="D32" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM398.NCVN.256</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM397.WXXH.736</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>HBM398.NCVN.256</t>
+          <t>HBM397.WXXH.736</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>source_storage_duration_value</t>
+          <t>nuclear_marker_or_stain</t>
         </is>
       </c>
       <c r="C33" t="inlineStr"/>
       <c r="D33" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM398.NCVN.256</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM397.WXXH.736</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>HBM482.MVFZ.845</t>
+          <t>HBM397.WXXH.736</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>cell_boundary_marker_or_stain</t>
+          <t>slide_id</t>
         </is>
       </c>
       <c r="C34" t="inlineStr"/>
       <c r="D34" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM482.MVFZ.845</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM397.WXXH.736</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>HBM482.MVFZ.845</t>
+          <t>HBM397.WXXH.736</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>slide_id</t>
+          <t>source_storage_duration_unit</t>
         </is>
       </c>
       <c r="C35" t="inlineStr"/>
       <c r="D35" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM482.MVFZ.845</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM397.WXXH.736</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>HBM482.MVFZ.845</t>
+          <t>HBM397.WXXH.736</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>source_storage_duration_unit</t>
+          <t>source_storage_duration_value</t>
         </is>
       </c>
       <c r="C36" t="inlineStr"/>
       <c r="D36" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM482.MVFZ.845</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM397.WXXH.736</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>HBM482.MVFZ.845</t>
+          <t>HBM398.NCVN.256</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>source_storage_duration_value</t>
+          <t>cell_boundary_marker_or_stain</t>
         </is>
       </c>
       <c r="C37" t="inlineStr"/>
       <c r="D37" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM482.MVFZ.845</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM398.NCVN.256</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>HBM494.XDQW.356</t>
+          <t>HBM398.NCVN.256</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>cell_boundary_marker_or_stain</t>
+          <t>nuclear_marker_or_stain</t>
         </is>
       </c>
       <c r="C38" t="inlineStr"/>
       <c r="D38" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM494.XDQW.356</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM398.NCVN.256</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>HBM494.XDQW.356</t>
+          <t>HBM398.NCVN.256</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
@@ -1482,14 +1666,14 @@
       <c r="C39" t="inlineStr"/>
       <c r="D39" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM494.XDQW.356</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM398.NCVN.256</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>HBM494.XDQW.356</t>
+          <t>HBM398.NCVN.256</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
@@ -1500,14 +1684,14 @@
       <c r="C40" t="inlineStr"/>
       <c r="D40" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM494.XDQW.356</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM398.NCVN.256</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>HBM494.XDQW.356</t>
+          <t>HBM398.NCVN.256</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
@@ -1518,14 +1702,14 @@
       <c r="C41" t="inlineStr"/>
       <c r="D41" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM494.XDQW.356</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM398.NCVN.256</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>HBM565.SQDP.934</t>
+          <t>HBM482.MVFZ.845</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
@@ -1536,302 +1720,302 @@
       <c r="C42" t="inlineStr"/>
       <c r="D42" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM565.SQDP.934</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM482.MVFZ.845</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>HBM565.SQDP.934</t>
+          <t>HBM482.MVFZ.845</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>slide_id</t>
+          <t>nuclear_marker_or_stain</t>
         </is>
       </c>
       <c r="C43" t="inlineStr"/>
       <c r="D43" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM565.SQDP.934</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM482.MVFZ.845</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>HBM565.SQDP.934</t>
+          <t>HBM482.MVFZ.845</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>source_storage_duration_unit</t>
+          <t>slide_id</t>
         </is>
       </c>
       <c r="C44" t="inlineStr"/>
       <c r="D44" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM565.SQDP.934</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM482.MVFZ.845</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>HBM565.SQDP.934</t>
+          <t>HBM482.MVFZ.845</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>source_storage_duration_value</t>
+          <t>source_storage_duration_unit</t>
         </is>
       </c>
       <c r="C45" t="inlineStr"/>
       <c r="D45" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM565.SQDP.934</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM482.MVFZ.845</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>HBM592.JGSQ.253</t>
+          <t>HBM482.MVFZ.845</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>cell_boundary_marker_or_stain</t>
+          <t>source_storage_duration_value</t>
         </is>
       </c>
       <c r="C46" t="inlineStr"/>
       <c r="D46" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM592.JGSQ.253</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM482.MVFZ.845</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>HBM592.JGSQ.253</t>
+          <t>HBM494.XDQW.356</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>slide_id</t>
+          <t>cell_boundary_marker_or_stain</t>
         </is>
       </c>
       <c r="C47" t="inlineStr"/>
       <c r="D47" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM592.JGSQ.253</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM494.XDQW.356</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>HBM592.JGSQ.253</t>
+          <t>HBM494.XDQW.356</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>source_storage_duration_unit</t>
+          <t>nuclear_marker_or_stain</t>
         </is>
       </c>
       <c r="C48" t="inlineStr"/>
       <c r="D48" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM592.JGSQ.253</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM494.XDQW.356</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>HBM592.JGSQ.253</t>
+          <t>HBM494.XDQW.356</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>source_storage_duration_value</t>
+          <t>slide_id</t>
         </is>
       </c>
       <c r="C49" t="inlineStr"/>
       <c r="D49" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM592.JGSQ.253</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM494.XDQW.356</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>HBM657.CDHD.889</t>
+          <t>HBM494.XDQW.356</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>cell_boundary_marker_or_stain</t>
+          <t>source_storage_duration_unit</t>
         </is>
       </c>
       <c r="C50" t="inlineStr"/>
       <c r="D50" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM657.CDHD.889</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM494.XDQW.356</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>HBM657.CDHD.889</t>
+          <t>HBM494.XDQW.356</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>slide_id</t>
+          <t>source_storage_duration_value</t>
         </is>
       </c>
       <c r="C51" t="inlineStr"/>
       <c r="D51" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM657.CDHD.889</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM494.XDQW.356</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>HBM657.CDHD.889</t>
+          <t>HBM565.SQDP.934</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>source_storage_duration_unit</t>
+          <t>cell_boundary_marker_or_stain</t>
         </is>
       </c>
       <c r="C52" t="inlineStr"/>
       <c r="D52" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM657.CDHD.889</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM565.SQDP.934</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>HBM657.CDHD.889</t>
+          <t>HBM565.SQDP.934</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>source_storage_duration_value</t>
+          <t>nuclear_marker_or_stain</t>
         </is>
       </c>
       <c r="C53" t="inlineStr"/>
       <c r="D53" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM657.CDHD.889</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM565.SQDP.934</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>HBM664.DZXQ.368</t>
+          <t>HBM565.SQDP.934</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>cell_boundary_marker_or_stain</t>
+          <t>slide_id</t>
         </is>
       </c>
       <c r="C54" t="inlineStr"/>
       <c r="D54" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM664.DZXQ.368</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM565.SQDP.934</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>HBM664.DZXQ.368</t>
+          <t>HBM565.SQDP.934</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>slide_id</t>
+          <t>source_storage_duration_unit</t>
         </is>
       </c>
       <c r="C55" t="inlineStr"/>
       <c r="D55" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM664.DZXQ.368</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM565.SQDP.934</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>HBM664.DZXQ.368</t>
+          <t>HBM565.SQDP.934</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>source_storage_duration_unit</t>
+          <t>source_storage_duration_value</t>
         </is>
       </c>
       <c r="C56" t="inlineStr"/>
       <c r="D56" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM664.DZXQ.368</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM565.SQDP.934</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>HBM664.DZXQ.368</t>
+          <t>HBM592.JGSQ.253</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>source_storage_duration_value</t>
+          <t>cell_boundary_marker_or_stain</t>
         </is>
       </c>
       <c r="C57" t="inlineStr"/>
       <c r="D57" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM664.DZXQ.368</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM592.JGSQ.253</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>HBM664.FKZG.689</t>
+          <t>HBM592.JGSQ.253</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>cell_boundary_marker_or_stain</t>
+          <t>nuclear_marker_or_stain</t>
         </is>
       </c>
       <c r="C58" t="inlineStr"/>
       <c r="D58" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM664.FKZG.689</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM592.JGSQ.253</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>HBM664.FKZG.689</t>
+          <t>HBM592.JGSQ.253</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
@@ -1842,14 +2026,14 @@
       <c r="C59" t="inlineStr"/>
       <c r="D59" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM664.FKZG.689</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM592.JGSQ.253</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>HBM664.FKZG.689</t>
+          <t>HBM592.JGSQ.253</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
@@ -1860,14 +2044,14 @@
       <c r="C60" t="inlineStr"/>
       <c r="D60" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM664.FKZG.689</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM592.JGSQ.253</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>HBM664.FKZG.689</t>
+          <t>HBM592.JGSQ.253</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
@@ -1878,14 +2062,14 @@
       <c r="C61" t="inlineStr"/>
       <c r="D61" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM664.FKZG.689</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM592.JGSQ.253</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>HBM666.JCGS.862</t>
+          <t>HBM657.CDHD.889</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
@@ -1896,302 +2080,302 @@
       <c r="C62" t="inlineStr"/>
       <c r="D62" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM666.JCGS.862</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM657.CDHD.889</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>HBM666.JCGS.862</t>
+          <t>HBM657.CDHD.889</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>slide_id</t>
+          <t>nuclear_marker_or_stain</t>
         </is>
       </c>
       <c r="C63" t="inlineStr"/>
       <c r="D63" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM666.JCGS.862</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM657.CDHD.889</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>HBM666.JCGS.862</t>
+          <t>HBM657.CDHD.889</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>source_storage_duration_unit</t>
+          <t>slide_id</t>
         </is>
       </c>
       <c r="C64" t="inlineStr"/>
       <c r="D64" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM666.JCGS.862</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM657.CDHD.889</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>HBM666.JCGS.862</t>
+          <t>HBM657.CDHD.889</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>source_storage_duration_value</t>
+          <t>source_storage_duration_unit</t>
         </is>
       </c>
       <c r="C65" t="inlineStr"/>
       <c r="D65" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM666.JCGS.862</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM657.CDHD.889</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>HBM674.XQFQ.364</t>
+          <t>HBM657.CDHD.889</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>cell_boundary_marker_or_stain</t>
+          <t>source_storage_duration_value</t>
         </is>
       </c>
       <c r="C66" t="inlineStr"/>
       <c r="D66" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM674.XQFQ.364</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM657.CDHD.889</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>HBM674.XQFQ.364</t>
+          <t>HBM664.DZXQ.368</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>slide_id</t>
+          <t>cell_boundary_marker_or_stain</t>
         </is>
       </c>
       <c r="C67" t="inlineStr"/>
       <c r="D67" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM674.XQFQ.364</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM664.DZXQ.368</t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>HBM674.XQFQ.364</t>
+          <t>HBM664.DZXQ.368</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>source_storage_duration_unit</t>
+          <t>nuclear_marker_or_stain</t>
         </is>
       </c>
       <c r="C68" t="inlineStr"/>
       <c r="D68" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM674.XQFQ.364</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM664.DZXQ.368</t>
         </is>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>HBM674.XQFQ.364</t>
+          <t>HBM664.DZXQ.368</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>source_storage_duration_value</t>
+          <t>slide_id</t>
         </is>
       </c>
       <c r="C69" t="inlineStr"/>
       <c r="D69" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM674.XQFQ.364</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM664.DZXQ.368</t>
         </is>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>HBM679.HJKX.869</t>
+          <t>HBM664.DZXQ.368</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>cell_boundary_marker_or_stain</t>
+          <t>source_storage_duration_unit</t>
         </is>
       </c>
       <c r="C70" t="inlineStr"/>
       <c r="D70" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM679.HJKX.869</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM664.DZXQ.368</t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>HBM679.HJKX.869</t>
+          <t>HBM664.DZXQ.368</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>slide_id</t>
+          <t>source_storage_duration_value</t>
         </is>
       </c>
       <c r="C71" t="inlineStr"/>
       <c r="D71" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM679.HJKX.869</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM664.DZXQ.368</t>
         </is>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>HBM679.HJKX.869</t>
+          <t>HBM664.FKZG.689</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>source_storage_duration_unit</t>
+          <t>cell_boundary_marker_or_stain</t>
         </is>
       </c>
       <c r="C72" t="inlineStr"/>
       <c r="D72" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM679.HJKX.869</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM664.FKZG.689</t>
         </is>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>HBM679.HJKX.869</t>
+          <t>HBM664.FKZG.689</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>source_storage_duration_value</t>
+          <t>nuclear_marker_or_stain</t>
         </is>
       </c>
       <c r="C73" t="inlineStr"/>
       <c r="D73" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM679.HJKX.869</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM664.FKZG.689</t>
         </is>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>HBM696.JXRB.423</t>
+          <t>HBM664.FKZG.689</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>cell_boundary_marker_or_stain</t>
+          <t>slide_id</t>
         </is>
       </c>
       <c r="C74" t="inlineStr"/>
       <c r="D74" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM696.JXRB.423</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM664.FKZG.689</t>
         </is>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>HBM696.JXRB.423</t>
+          <t>HBM664.FKZG.689</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>slide_id</t>
+          <t>source_storage_duration_unit</t>
         </is>
       </c>
       <c r="C75" t="inlineStr"/>
       <c r="D75" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM696.JXRB.423</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM664.FKZG.689</t>
         </is>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>HBM696.JXRB.423</t>
+          <t>HBM664.FKZG.689</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>source_storage_duration_unit</t>
+          <t>source_storage_duration_value</t>
         </is>
       </c>
       <c r="C76" t="inlineStr"/>
       <c r="D76" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM696.JXRB.423</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM664.FKZG.689</t>
         </is>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>HBM696.JXRB.423</t>
+          <t>HBM666.JCGS.862</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>source_storage_duration_value</t>
+          <t>cell_boundary_marker_or_stain</t>
         </is>
       </c>
       <c r="C77" t="inlineStr"/>
       <c r="D77" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM696.JXRB.423</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM666.JCGS.862</t>
         </is>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>HBM732.FZVZ.656</t>
+          <t>HBM666.JCGS.862</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>cell_boundary_marker_or_stain</t>
+          <t>nuclear_marker_or_stain</t>
         </is>
       </c>
       <c r="C78" t="inlineStr"/>
       <c r="D78" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM732.FZVZ.656</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM666.JCGS.862</t>
         </is>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>HBM732.FZVZ.656</t>
+          <t>HBM666.JCGS.862</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
@@ -2202,14 +2386,14 @@
       <c r="C79" t="inlineStr"/>
       <c r="D79" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM732.FZVZ.656</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM666.JCGS.862</t>
         </is>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>HBM732.FZVZ.656</t>
+          <t>HBM666.JCGS.862</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
@@ -2220,14 +2404,14 @@
       <c r="C80" t="inlineStr"/>
       <c r="D80" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM732.FZVZ.656</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM666.JCGS.862</t>
         </is>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>HBM732.FZVZ.656</t>
+          <t>HBM666.JCGS.862</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
@@ -2238,14 +2422,14 @@
       <c r="C81" t="inlineStr"/>
       <c r="D81" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM732.FZVZ.656</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM666.JCGS.862</t>
         </is>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>HBM746.VTDZ.959</t>
+          <t>HBM674.XQFQ.364</t>
         </is>
       </c>
       <c r="B82" t="inlineStr">
@@ -2256,302 +2440,302 @@
       <c r="C82" t="inlineStr"/>
       <c r="D82" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM746.VTDZ.959</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM674.XQFQ.364</t>
         </is>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>HBM746.VTDZ.959</t>
+          <t>HBM674.XQFQ.364</t>
         </is>
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>slide_id</t>
+          <t>nuclear_marker_or_stain</t>
         </is>
       </c>
       <c r="C83" t="inlineStr"/>
       <c r="D83" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM746.VTDZ.959</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM674.XQFQ.364</t>
         </is>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>HBM746.VTDZ.959</t>
+          <t>HBM674.XQFQ.364</t>
         </is>
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>source_storage_duration_unit</t>
+          <t>slide_id</t>
         </is>
       </c>
       <c r="C84" t="inlineStr"/>
       <c r="D84" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM746.VTDZ.959</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM674.XQFQ.364</t>
         </is>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>HBM746.VTDZ.959</t>
+          <t>HBM674.XQFQ.364</t>
         </is>
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>source_storage_duration_value</t>
+          <t>source_storage_duration_unit</t>
         </is>
       </c>
       <c r="C85" t="inlineStr"/>
       <c r="D85" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM746.VTDZ.959</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM674.XQFQ.364</t>
         </is>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>HBM747.SPWK.779</t>
+          <t>HBM674.XQFQ.364</t>
         </is>
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>cell_boundary_marker_or_stain</t>
+          <t>source_storage_duration_value</t>
         </is>
       </c>
       <c r="C86" t="inlineStr"/>
       <c r="D86" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM747.SPWK.779</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM674.XQFQ.364</t>
         </is>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>HBM747.SPWK.779</t>
+          <t>HBM679.HJKX.869</t>
         </is>
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>slide_id</t>
+          <t>cell_boundary_marker_or_stain</t>
         </is>
       </c>
       <c r="C87" t="inlineStr"/>
       <c r="D87" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM747.SPWK.779</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM679.HJKX.869</t>
         </is>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>HBM747.SPWK.779</t>
+          <t>HBM679.HJKX.869</t>
         </is>
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>source_storage_duration_unit</t>
+          <t>nuclear_marker_or_stain</t>
         </is>
       </c>
       <c r="C88" t="inlineStr"/>
       <c r="D88" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM747.SPWK.779</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM679.HJKX.869</t>
         </is>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>HBM747.SPWK.779</t>
+          <t>HBM679.HJKX.869</t>
         </is>
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>source_storage_duration_value</t>
+          <t>slide_id</t>
         </is>
       </c>
       <c r="C89" t="inlineStr"/>
       <c r="D89" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM747.SPWK.779</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM679.HJKX.869</t>
         </is>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>HBM756.VJGX.949</t>
+          <t>HBM679.HJKX.869</t>
         </is>
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>cell_boundary_marker_or_stain</t>
+          <t>source_storage_duration_unit</t>
         </is>
       </c>
       <c r="C90" t="inlineStr"/>
       <c r="D90" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM756.VJGX.949</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM679.HJKX.869</t>
         </is>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>HBM756.VJGX.949</t>
+          <t>HBM679.HJKX.869</t>
         </is>
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>slide_id</t>
+          <t>source_storage_duration_value</t>
         </is>
       </c>
       <c r="C91" t="inlineStr"/>
       <c r="D91" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM756.VJGX.949</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM679.HJKX.869</t>
         </is>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>HBM756.VJGX.949</t>
+          <t>HBM696.JXRB.423</t>
         </is>
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>source_storage_duration_unit</t>
+          <t>cell_boundary_marker_or_stain</t>
         </is>
       </c>
       <c r="C92" t="inlineStr"/>
       <c r="D92" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM756.VJGX.949</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM696.JXRB.423</t>
         </is>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>HBM756.VJGX.949</t>
+          <t>HBM696.JXRB.423</t>
         </is>
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>source_storage_duration_value</t>
+          <t>nuclear_marker_or_stain</t>
         </is>
       </c>
       <c r="C93" t="inlineStr"/>
       <c r="D93" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM756.VJGX.949</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM696.JXRB.423</t>
         </is>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>HBM775.JPHP.327</t>
+          <t>HBM696.JXRB.423</t>
         </is>
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>cell_boundary_marker_or_stain</t>
+          <t>slide_id</t>
         </is>
       </c>
       <c r="C94" t="inlineStr"/>
       <c r="D94" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM775.JPHP.327</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM696.JXRB.423</t>
         </is>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>HBM775.JPHP.327</t>
+          <t>HBM696.JXRB.423</t>
         </is>
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>slide_id</t>
+          <t>source_storage_duration_unit</t>
         </is>
       </c>
       <c r="C95" t="inlineStr"/>
       <c r="D95" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM775.JPHP.327</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM696.JXRB.423</t>
         </is>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>HBM775.JPHP.327</t>
+          <t>HBM696.JXRB.423</t>
         </is>
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>source_storage_duration_unit</t>
+          <t>source_storage_duration_value</t>
         </is>
       </c>
       <c r="C96" t="inlineStr"/>
       <c r="D96" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM775.JPHP.327</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM696.JXRB.423</t>
         </is>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>HBM775.JPHP.327</t>
+          <t>HBM732.FZVZ.656</t>
         </is>
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>source_storage_duration_value</t>
+          <t>cell_boundary_marker_or_stain</t>
         </is>
       </c>
       <c r="C97" t="inlineStr"/>
       <c r="D97" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM775.JPHP.327</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM732.FZVZ.656</t>
         </is>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>HBM828.LLCJ.983</t>
+          <t>HBM732.FZVZ.656</t>
         </is>
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>cell_boundary_marker_or_stain</t>
+          <t>nuclear_marker_or_stain</t>
         </is>
       </c>
       <c r="C98" t="inlineStr"/>
       <c r="D98" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM828.LLCJ.983</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM732.FZVZ.656</t>
         </is>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>HBM828.LLCJ.983</t>
+          <t>HBM732.FZVZ.656</t>
         </is>
       </c>
       <c r="B99" t="inlineStr">
@@ -2562,14 +2746,14 @@
       <c r="C99" t="inlineStr"/>
       <c r="D99" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM828.LLCJ.983</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM732.FZVZ.656</t>
         </is>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>HBM828.LLCJ.983</t>
+          <t>HBM732.FZVZ.656</t>
         </is>
       </c>
       <c r="B100" t="inlineStr">
@@ -2580,14 +2764,14 @@
       <c r="C100" t="inlineStr"/>
       <c r="D100" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM828.LLCJ.983</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM732.FZVZ.656</t>
         </is>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>HBM828.LLCJ.983</t>
+          <t>HBM732.FZVZ.656</t>
         </is>
       </c>
       <c r="B101" t="inlineStr">
@@ -2598,14 +2782,14 @@
       <c r="C101" t="inlineStr"/>
       <c r="D101" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM828.LLCJ.983</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM732.FZVZ.656</t>
         </is>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>HBM832.BXFF.523</t>
+          <t>HBM746.VTDZ.959</t>
         </is>
       </c>
       <c r="B102" t="inlineStr">
@@ -2616,302 +2800,302 @@
       <c r="C102" t="inlineStr"/>
       <c r="D102" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM832.BXFF.523</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM746.VTDZ.959</t>
         </is>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>HBM832.BXFF.523</t>
+          <t>HBM746.VTDZ.959</t>
         </is>
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>slide_id</t>
+          <t>nuclear_marker_or_stain</t>
         </is>
       </c>
       <c r="C103" t="inlineStr"/>
       <c r="D103" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM832.BXFF.523</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM746.VTDZ.959</t>
         </is>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>HBM832.BXFF.523</t>
+          <t>HBM746.VTDZ.959</t>
         </is>
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>source_storage_duration_unit</t>
+          <t>slide_id</t>
         </is>
       </c>
       <c r="C104" t="inlineStr"/>
       <c r="D104" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM832.BXFF.523</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM746.VTDZ.959</t>
         </is>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>HBM832.BXFF.523</t>
+          <t>HBM746.VTDZ.959</t>
         </is>
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>source_storage_duration_value</t>
+          <t>source_storage_duration_unit</t>
         </is>
       </c>
       <c r="C105" t="inlineStr"/>
       <c r="D105" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM832.BXFF.523</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM746.VTDZ.959</t>
         </is>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>HBM867.NMXL.794</t>
+          <t>HBM746.VTDZ.959</t>
         </is>
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>cell_boundary_marker_or_stain</t>
+          <t>source_storage_duration_value</t>
         </is>
       </c>
       <c r="C106" t="inlineStr"/>
       <c r="D106" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM867.NMXL.794</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM746.VTDZ.959</t>
         </is>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>HBM867.NMXL.794</t>
+          <t>HBM747.SPWK.779</t>
         </is>
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>slide_id</t>
+          <t>cell_boundary_marker_or_stain</t>
         </is>
       </c>
       <c r="C107" t="inlineStr"/>
       <c r="D107" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM867.NMXL.794</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM747.SPWK.779</t>
         </is>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>HBM867.NMXL.794</t>
+          <t>HBM747.SPWK.779</t>
         </is>
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>source_storage_duration_unit</t>
+          <t>nuclear_marker_or_stain</t>
         </is>
       </c>
       <c r="C108" t="inlineStr"/>
       <c r="D108" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM867.NMXL.794</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM747.SPWK.779</t>
         </is>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>HBM867.NMXL.794</t>
+          <t>HBM747.SPWK.779</t>
         </is>
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>source_storage_duration_value</t>
+          <t>slide_id</t>
         </is>
       </c>
       <c r="C109" t="inlineStr"/>
       <c r="D109" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM867.NMXL.794</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM747.SPWK.779</t>
         </is>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>HBM875.SBHJ.939</t>
+          <t>HBM747.SPWK.779</t>
         </is>
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>cell_boundary_marker_or_stain</t>
+          <t>source_storage_duration_unit</t>
         </is>
       </c>
       <c r="C110" t="inlineStr"/>
       <c r="D110" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM875.SBHJ.939</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM747.SPWK.779</t>
         </is>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>HBM875.SBHJ.939</t>
+          <t>HBM747.SPWK.779</t>
         </is>
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>slide_id</t>
+          <t>source_storage_duration_value</t>
         </is>
       </c>
       <c r="C111" t="inlineStr"/>
       <c r="D111" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM875.SBHJ.939</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM747.SPWK.779</t>
         </is>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>HBM875.SBHJ.939</t>
+          <t>HBM756.VJGX.949</t>
         </is>
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>source_storage_duration_unit</t>
+          <t>cell_boundary_marker_or_stain</t>
         </is>
       </c>
       <c r="C112" t="inlineStr"/>
       <c r="D112" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM875.SBHJ.939</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM756.VJGX.949</t>
         </is>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>HBM875.SBHJ.939</t>
+          <t>HBM756.VJGX.949</t>
         </is>
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>source_storage_duration_value</t>
+          <t>nuclear_marker_or_stain</t>
         </is>
       </c>
       <c r="C113" t="inlineStr"/>
       <c r="D113" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM875.SBHJ.939</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM756.VJGX.949</t>
         </is>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t>HBM948.WLJK.772</t>
+          <t>HBM756.VJGX.949</t>
         </is>
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>cell_boundary_marker_or_stain</t>
+          <t>slide_id</t>
         </is>
       </c>
       <c r="C114" t="inlineStr"/>
       <c r="D114" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM948.WLJK.772</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM756.VJGX.949</t>
         </is>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t>HBM948.WLJK.772</t>
+          <t>HBM756.VJGX.949</t>
         </is>
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>slide_id</t>
+          <t>source_storage_duration_unit</t>
         </is>
       </c>
       <c r="C115" t="inlineStr"/>
       <c r="D115" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM948.WLJK.772</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM756.VJGX.949</t>
         </is>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="inlineStr">
         <is>
-          <t>HBM948.WLJK.772</t>
+          <t>HBM756.VJGX.949</t>
         </is>
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>source_storage_duration_unit</t>
+          <t>source_storage_duration_value</t>
         </is>
       </c>
       <c r="C116" t="inlineStr"/>
       <c r="D116" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM948.WLJK.772</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM756.VJGX.949</t>
         </is>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="inlineStr">
         <is>
-          <t>HBM948.WLJK.772</t>
+          <t>HBM775.JPHP.327</t>
         </is>
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>source_storage_duration_value</t>
+          <t>cell_boundary_marker_or_stain</t>
         </is>
       </c>
       <c r="C117" t="inlineStr"/>
       <c r="D117" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM948.WLJK.772</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM775.JPHP.327</t>
         </is>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="inlineStr">
         <is>
-          <t>HBM975.FVCG.922</t>
+          <t>HBM775.JPHP.327</t>
         </is>
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>cell_boundary_marker_or_stain</t>
+          <t>nuclear_marker_or_stain</t>
         </is>
       </c>
       <c r="C118" t="inlineStr"/>
       <c r="D118" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM975.FVCG.922</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM775.JPHP.327</t>
         </is>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="inlineStr">
         <is>
-          <t>HBM975.FVCG.922</t>
+          <t>HBM775.JPHP.327</t>
         </is>
       </c>
       <c r="B119" t="inlineStr">
@@ -2922,14 +3106,14 @@
       <c r="C119" t="inlineStr"/>
       <c r="D119" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM975.FVCG.922</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM775.JPHP.327</t>
         </is>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="inlineStr">
         <is>
-          <t>HBM975.FVCG.922</t>
+          <t>HBM775.JPHP.327</t>
         </is>
       </c>
       <c r="B120" t="inlineStr">
@@ -2940,14 +3124,14 @@
       <c r="C120" t="inlineStr"/>
       <c r="D120" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM975.FVCG.922</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM775.JPHP.327</t>
         </is>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="inlineStr">
         <is>
-          <t>HBM975.FVCG.922</t>
+          <t>HBM775.JPHP.327</t>
         </is>
       </c>
       <c r="B121" t="inlineStr">
@@ -2958,14 +3142,14 @@
       <c r="C121" t="inlineStr"/>
       <c r="D121" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM975.FVCG.922</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM775.JPHP.327</t>
         </is>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="inlineStr">
         <is>
-          <t>HBM993.ZZWK.542</t>
+          <t>HBM828.LLCJ.983</t>
         </is>
       </c>
       <c r="B122" t="inlineStr">
@@ -2976,140 +3160,716 @@
       <c r="C122" t="inlineStr"/>
       <c r="D122" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM993.ZZWK.542</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM828.LLCJ.983</t>
         </is>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="inlineStr">
         <is>
-          <t>HBM993.ZZWK.542</t>
+          <t>HBM828.LLCJ.983</t>
         </is>
       </c>
       <c r="B123" t="inlineStr">
         <is>
-          <t>slide_id</t>
+          <t>nuclear_marker_or_stain</t>
         </is>
       </c>
       <c r="C123" t="inlineStr"/>
       <c r="D123" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM993.ZZWK.542</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM828.LLCJ.983</t>
         </is>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="inlineStr">
         <is>
-          <t>HBM993.ZZWK.542</t>
+          <t>HBM828.LLCJ.983</t>
         </is>
       </c>
       <c r="B124" t="inlineStr">
         <is>
-          <t>source_storage_duration_unit</t>
+          <t>slide_id</t>
         </is>
       </c>
       <c r="C124" t="inlineStr"/>
       <c r="D124" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM993.ZZWK.542</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM828.LLCJ.983</t>
         </is>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="inlineStr">
         <is>
-          <t>HBM993.ZZWK.542</t>
+          <t>HBM828.LLCJ.983</t>
         </is>
       </c>
       <c r="B125" t="inlineStr">
         <is>
-          <t>source_storage_duration_value</t>
+          <t>source_storage_duration_unit</t>
         </is>
       </c>
       <c r="C125" t="inlineStr"/>
       <c r="D125" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM993.ZZWK.542</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM828.LLCJ.983</t>
         </is>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="inlineStr">
         <is>
-          <t>HBM999.CXFH.954</t>
+          <t>HBM828.LLCJ.983</t>
         </is>
       </c>
       <c r="B126" t="inlineStr">
         <is>
-          <t>cell_boundary_marker_or_stain</t>
+          <t>source_storage_duration_value</t>
         </is>
       </c>
       <c r="C126" t="inlineStr"/>
       <c r="D126" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM999.CXFH.954</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM828.LLCJ.983</t>
         </is>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="inlineStr">
         <is>
-          <t>HBM999.CXFH.954</t>
+          <t>HBM832.BXFF.523</t>
         </is>
       </c>
       <c r="B127" t="inlineStr">
         <is>
-          <t>slide_id</t>
+          <t>cell_boundary_marker_or_stain</t>
         </is>
       </c>
       <c r="C127" t="inlineStr"/>
       <c r="D127" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM999.CXFH.954</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM832.BXFF.523</t>
         </is>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="inlineStr">
         <is>
-          <t>HBM999.CXFH.954</t>
+          <t>HBM832.BXFF.523</t>
         </is>
       </c>
       <c r="B128" t="inlineStr">
         <is>
-          <t>source_storage_duration_unit</t>
+          <t>nuclear_marker_or_stain</t>
         </is>
       </c>
       <c r="C128" t="inlineStr"/>
       <c r="D128" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM999.CXFH.954</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM832.BXFF.523</t>
         </is>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="inlineStr">
         <is>
-          <t>HBM999.CXFH.954</t>
+          <t>HBM832.BXFF.523</t>
         </is>
       </c>
       <c r="B129" t="inlineStr">
         <is>
-          <t>source_storage_duration_value</t>
+          <t>slide_id</t>
         </is>
       </c>
       <c r="C129" t="inlineStr"/>
       <c r="D129" t="inlineStr">
         <is>
+          <t>https://portal.hubmapconsortium.org/browse/HBM832.BXFF.523</t>
+        </is>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" t="inlineStr">
+        <is>
+          <t>HBM832.BXFF.523</t>
+        </is>
+      </c>
+      <c r="B130" t="inlineStr">
+        <is>
+          <t>source_storage_duration_unit</t>
+        </is>
+      </c>
+      <c r="C130" t="inlineStr"/>
+      <c r="D130" t="inlineStr">
+        <is>
+          <t>https://portal.hubmapconsortium.org/browse/HBM832.BXFF.523</t>
+        </is>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" t="inlineStr">
+        <is>
+          <t>HBM832.BXFF.523</t>
+        </is>
+      </c>
+      <c r="B131" t="inlineStr">
+        <is>
+          <t>source_storage_duration_value</t>
+        </is>
+      </c>
+      <c r="C131" t="inlineStr"/>
+      <c r="D131" t="inlineStr">
+        <is>
+          <t>https://portal.hubmapconsortium.org/browse/HBM832.BXFF.523</t>
+        </is>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" t="inlineStr">
+        <is>
+          <t>HBM867.NMXL.794</t>
+        </is>
+      </c>
+      <c r="B132" t="inlineStr">
+        <is>
+          <t>cell_boundary_marker_or_stain</t>
+        </is>
+      </c>
+      <c r="C132" t="inlineStr"/>
+      <c r="D132" t="inlineStr">
+        <is>
+          <t>https://portal.hubmapconsortium.org/browse/HBM867.NMXL.794</t>
+        </is>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" t="inlineStr">
+        <is>
+          <t>HBM867.NMXL.794</t>
+        </is>
+      </c>
+      <c r="B133" t="inlineStr">
+        <is>
+          <t>nuclear_marker_or_stain</t>
+        </is>
+      </c>
+      <c r="C133" t="inlineStr"/>
+      <c r="D133" t="inlineStr">
+        <is>
+          <t>https://portal.hubmapconsortium.org/browse/HBM867.NMXL.794</t>
+        </is>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" t="inlineStr">
+        <is>
+          <t>HBM867.NMXL.794</t>
+        </is>
+      </c>
+      <c r="B134" t="inlineStr">
+        <is>
+          <t>slide_id</t>
+        </is>
+      </c>
+      <c r="C134" t="inlineStr"/>
+      <c r="D134" t="inlineStr">
+        <is>
+          <t>https://portal.hubmapconsortium.org/browse/HBM867.NMXL.794</t>
+        </is>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" t="inlineStr">
+        <is>
+          <t>HBM867.NMXL.794</t>
+        </is>
+      </c>
+      <c r="B135" t="inlineStr">
+        <is>
+          <t>source_storage_duration_unit</t>
+        </is>
+      </c>
+      <c r="C135" t="inlineStr"/>
+      <c r="D135" t="inlineStr">
+        <is>
+          <t>https://portal.hubmapconsortium.org/browse/HBM867.NMXL.794</t>
+        </is>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" t="inlineStr">
+        <is>
+          <t>HBM867.NMXL.794</t>
+        </is>
+      </c>
+      <c r="B136" t="inlineStr">
+        <is>
+          <t>source_storage_duration_value</t>
+        </is>
+      </c>
+      <c r="C136" t="inlineStr"/>
+      <c r="D136" t="inlineStr">
+        <is>
+          <t>https://portal.hubmapconsortium.org/browse/HBM867.NMXL.794</t>
+        </is>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" t="inlineStr">
+        <is>
+          <t>HBM875.SBHJ.939</t>
+        </is>
+      </c>
+      <c r="B137" t="inlineStr">
+        <is>
+          <t>cell_boundary_marker_or_stain</t>
+        </is>
+      </c>
+      <c r="C137" t="inlineStr"/>
+      <c r="D137" t="inlineStr">
+        <is>
+          <t>https://portal.hubmapconsortium.org/browse/HBM875.SBHJ.939</t>
+        </is>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" t="inlineStr">
+        <is>
+          <t>HBM875.SBHJ.939</t>
+        </is>
+      </c>
+      <c r="B138" t="inlineStr">
+        <is>
+          <t>nuclear_marker_or_stain</t>
+        </is>
+      </c>
+      <c r="C138" t="inlineStr"/>
+      <c r="D138" t="inlineStr">
+        <is>
+          <t>https://portal.hubmapconsortium.org/browse/HBM875.SBHJ.939</t>
+        </is>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" t="inlineStr">
+        <is>
+          <t>HBM875.SBHJ.939</t>
+        </is>
+      </c>
+      <c r="B139" t="inlineStr">
+        <is>
+          <t>slide_id</t>
+        </is>
+      </c>
+      <c r="C139" t="inlineStr"/>
+      <c r="D139" t="inlineStr">
+        <is>
+          <t>https://portal.hubmapconsortium.org/browse/HBM875.SBHJ.939</t>
+        </is>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" t="inlineStr">
+        <is>
+          <t>HBM875.SBHJ.939</t>
+        </is>
+      </c>
+      <c r="B140" t="inlineStr">
+        <is>
+          <t>source_storage_duration_unit</t>
+        </is>
+      </c>
+      <c r="C140" t="inlineStr"/>
+      <c r="D140" t="inlineStr">
+        <is>
+          <t>https://portal.hubmapconsortium.org/browse/HBM875.SBHJ.939</t>
+        </is>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" t="inlineStr">
+        <is>
+          <t>HBM875.SBHJ.939</t>
+        </is>
+      </c>
+      <c r="B141" t="inlineStr">
+        <is>
+          <t>source_storage_duration_value</t>
+        </is>
+      </c>
+      <c r="C141" t="inlineStr"/>
+      <c r="D141" t="inlineStr">
+        <is>
+          <t>https://portal.hubmapconsortium.org/browse/HBM875.SBHJ.939</t>
+        </is>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" t="inlineStr">
+        <is>
+          <t>HBM948.WLJK.772</t>
+        </is>
+      </c>
+      <c r="B142" t="inlineStr">
+        <is>
+          <t>cell_boundary_marker_or_stain</t>
+        </is>
+      </c>
+      <c r="C142" t="inlineStr"/>
+      <c r="D142" t="inlineStr">
+        <is>
+          <t>https://portal.hubmapconsortium.org/browse/HBM948.WLJK.772</t>
+        </is>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" t="inlineStr">
+        <is>
+          <t>HBM948.WLJK.772</t>
+        </is>
+      </c>
+      <c r="B143" t="inlineStr">
+        <is>
+          <t>nuclear_marker_or_stain</t>
+        </is>
+      </c>
+      <c r="C143" t="inlineStr"/>
+      <c r="D143" t="inlineStr">
+        <is>
+          <t>https://portal.hubmapconsortium.org/browse/HBM948.WLJK.772</t>
+        </is>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" t="inlineStr">
+        <is>
+          <t>HBM948.WLJK.772</t>
+        </is>
+      </c>
+      <c r="B144" t="inlineStr">
+        <is>
+          <t>slide_id</t>
+        </is>
+      </c>
+      <c r="C144" t="inlineStr"/>
+      <c r="D144" t="inlineStr">
+        <is>
+          <t>https://portal.hubmapconsortium.org/browse/HBM948.WLJK.772</t>
+        </is>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" t="inlineStr">
+        <is>
+          <t>HBM948.WLJK.772</t>
+        </is>
+      </c>
+      <c r="B145" t="inlineStr">
+        <is>
+          <t>source_storage_duration_unit</t>
+        </is>
+      </c>
+      <c r="C145" t="inlineStr"/>
+      <c r="D145" t="inlineStr">
+        <is>
+          <t>https://portal.hubmapconsortium.org/browse/HBM948.WLJK.772</t>
+        </is>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" t="inlineStr">
+        <is>
+          <t>HBM948.WLJK.772</t>
+        </is>
+      </c>
+      <c r="B146" t="inlineStr">
+        <is>
+          <t>source_storage_duration_value</t>
+        </is>
+      </c>
+      <c r="C146" t="inlineStr"/>
+      <c r="D146" t="inlineStr">
+        <is>
+          <t>https://portal.hubmapconsortium.org/browse/HBM948.WLJK.772</t>
+        </is>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" t="inlineStr">
+        <is>
+          <t>HBM975.FVCG.922</t>
+        </is>
+      </c>
+      <c r="B147" t="inlineStr">
+        <is>
+          <t>cell_boundary_marker_or_stain</t>
+        </is>
+      </c>
+      <c r="C147" t="inlineStr"/>
+      <c r="D147" t="inlineStr">
+        <is>
+          <t>https://portal.hubmapconsortium.org/browse/HBM975.FVCG.922</t>
+        </is>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" t="inlineStr">
+        <is>
+          <t>HBM975.FVCG.922</t>
+        </is>
+      </c>
+      <c r="B148" t="inlineStr">
+        <is>
+          <t>nuclear_marker_or_stain</t>
+        </is>
+      </c>
+      <c r="C148" t="inlineStr"/>
+      <c r="D148" t="inlineStr">
+        <is>
+          <t>https://portal.hubmapconsortium.org/browse/HBM975.FVCG.922</t>
+        </is>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" t="inlineStr">
+        <is>
+          <t>HBM975.FVCG.922</t>
+        </is>
+      </c>
+      <c r="B149" t="inlineStr">
+        <is>
+          <t>slide_id</t>
+        </is>
+      </c>
+      <c r="C149" t="inlineStr"/>
+      <c r="D149" t="inlineStr">
+        <is>
+          <t>https://portal.hubmapconsortium.org/browse/HBM975.FVCG.922</t>
+        </is>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" t="inlineStr">
+        <is>
+          <t>HBM975.FVCG.922</t>
+        </is>
+      </c>
+      <c r="B150" t="inlineStr">
+        <is>
+          <t>source_storage_duration_unit</t>
+        </is>
+      </c>
+      <c r="C150" t="inlineStr"/>
+      <c r="D150" t="inlineStr">
+        <is>
+          <t>https://portal.hubmapconsortium.org/browse/HBM975.FVCG.922</t>
+        </is>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" t="inlineStr">
+        <is>
+          <t>HBM975.FVCG.922</t>
+        </is>
+      </c>
+      <c r="B151" t="inlineStr">
+        <is>
+          <t>source_storage_duration_value</t>
+        </is>
+      </c>
+      <c r="C151" t="inlineStr"/>
+      <c r="D151" t="inlineStr">
+        <is>
+          <t>https://portal.hubmapconsortium.org/browse/HBM975.FVCG.922</t>
+        </is>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" t="inlineStr">
+        <is>
+          <t>HBM993.ZZWK.542</t>
+        </is>
+      </c>
+      <c r="B152" t="inlineStr">
+        <is>
+          <t>cell_boundary_marker_or_stain</t>
+        </is>
+      </c>
+      <c r="C152" t="inlineStr"/>
+      <c r="D152" t="inlineStr">
+        <is>
+          <t>https://portal.hubmapconsortium.org/browse/HBM993.ZZWK.542</t>
+        </is>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" t="inlineStr">
+        <is>
+          <t>HBM993.ZZWK.542</t>
+        </is>
+      </c>
+      <c r="B153" t="inlineStr">
+        <is>
+          <t>nuclear_marker_or_stain</t>
+        </is>
+      </c>
+      <c r="C153" t="inlineStr"/>
+      <c r="D153" t="inlineStr">
+        <is>
+          <t>https://portal.hubmapconsortium.org/browse/HBM993.ZZWK.542</t>
+        </is>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" t="inlineStr">
+        <is>
+          <t>HBM993.ZZWK.542</t>
+        </is>
+      </c>
+      <c r="B154" t="inlineStr">
+        <is>
+          <t>slide_id</t>
+        </is>
+      </c>
+      <c r="C154" t="inlineStr"/>
+      <c r="D154" t="inlineStr">
+        <is>
+          <t>https://portal.hubmapconsortium.org/browse/HBM993.ZZWK.542</t>
+        </is>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" t="inlineStr">
+        <is>
+          <t>HBM993.ZZWK.542</t>
+        </is>
+      </c>
+      <c r="B155" t="inlineStr">
+        <is>
+          <t>source_storage_duration_unit</t>
+        </is>
+      </c>
+      <c r="C155" t="inlineStr"/>
+      <c r="D155" t="inlineStr">
+        <is>
+          <t>https://portal.hubmapconsortium.org/browse/HBM993.ZZWK.542</t>
+        </is>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" t="inlineStr">
+        <is>
+          <t>HBM993.ZZWK.542</t>
+        </is>
+      </c>
+      <c r="B156" t="inlineStr">
+        <is>
+          <t>source_storage_duration_value</t>
+        </is>
+      </c>
+      <c r="C156" t="inlineStr"/>
+      <c r="D156" t="inlineStr">
+        <is>
+          <t>https://portal.hubmapconsortium.org/browse/HBM993.ZZWK.542</t>
+        </is>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" t="inlineStr">
+        <is>
+          <t>HBM999.CXFH.954</t>
+        </is>
+      </c>
+      <c r="B157" t="inlineStr">
+        <is>
+          <t>cell_boundary_marker_or_stain</t>
+        </is>
+      </c>
+      <c r="C157" t="inlineStr"/>
+      <c r="D157" t="inlineStr">
+        <is>
           <t>https://portal.hubmapconsortium.org/browse/HBM999.CXFH.954</t>
         </is>
       </c>
     </row>
+    <row r="158">
+      <c r="A158" t="inlineStr">
+        <is>
+          <t>HBM999.CXFH.954</t>
+        </is>
+      </c>
+      <c r="B158" t="inlineStr">
+        <is>
+          <t>nuclear_marker_or_stain</t>
+        </is>
+      </c>
+      <c r="C158" t="inlineStr"/>
+      <c r="D158" t="inlineStr">
+        <is>
+          <t>https://portal.hubmapconsortium.org/browse/HBM999.CXFH.954</t>
+        </is>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" t="inlineStr">
+        <is>
+          <t>HBM999.CXFH.954</t>
+        </is>
+      </c>
+      <c r="B159" t="inlineStr">
+        <is>
+          <t>slide_id</t>
+        </is>
+      </c>
+      <c r="C159" t="inlineStr"/>
+      <c r="D159" t="inlineStr">
+        <is>
+          <t>https://portal.hubmapconsortium.org/browse/HBM999.CXFH.954</t>
+        </is>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" t="inlineStr">
+        <is>
+          <t>HBM999.CXFH.954</t>
+        </is>
+      </c>
+      <c r="B160" t="inlineStr">
+        <is>
+          <t>source_storage_duration_unit</t>
+        </is>
+      </c>
+      <c r="C160" t="inlineStr"/>
+      <c r="D160" t="inlineStr">
+        <is>
+          <t>https://portal.hubmapconsortium.org/browse/HBM999.CXFH.954</t>
+        </is>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" t="inlineStr">
+        <is>
+          <t>HBM999.CXFH.954</t>
+        </is>
+      </c>
+      <c r="B161" t="inlineStr">
+        <is>
+          <t>source_storage_duration_value</t>
+        </is>
+      </c>
+      <c r="C161" t="inlineStr"/>
+      <c r="D161" t="inlineStr">
+        <is>
+          <t>https://portal.hubmapconsortium.org/browse/HBM999.CXFH.954</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:D129"/>
+  <autoFilter ref="A1:D161"/>
   <dataValidations count="1">
-    <dataValidation sqref="C4 C8 C12 C16 C20 C24 C28 C32 C36 C40 C44 C48 C52 C56 C60 C64 C68 C72 C76 C80 C84 C88 C92 C96 C100 C104 C108 C112 C116 C120 C124 C128" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" errorTitle="Invalid Entry" error="Your entry is not in the list" promptTitle="List Selection" prompt="Please select from the list" type="list">
+    <dataValidation sqref="C5 C10 C15 C20 C25 C30 C35 C40 C45 C50 C55 C60 C65 C70 C75 C80 C85 C90 C95 C100 C105 C110 C115 C120 C125 C130 C135 C140 C145 C150 C155 C160" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" errorTitle="Invalid Entry" error="Your entry is not in the list" promptTitle="List Selection" prompt="Please select from the list" type="list">
       <formula1>_validation_data!$B$1:$B$5</formula1>
     </dataValidation>
   </dataValidations>

--- a/metadata/celldive/todo/General Electric RTI (Cell DIVE).xlsx
+++ b/metadata/celldive/todo/General Electric RTI (Cell DIVE).xlsx
@@ -13,8 +13,7 @@
     <sheet name="Invalid Input Pattern" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'Non-Standard Value'!$A$1:$E$11</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'Missing Required Value'!$A$1:$D$161</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'Missing Required Value'!$A$1:$D$129</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">'Invalid Input Pattern'!$A$1:$F$33</definedName>
   </definedNames>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -420,7 +419,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B30"/>
+  <dimension ref="A1:A5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -431,11 +430,6 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>BGI Genomics</t>
-        </is>
-      </c>
-      <c r="B1" t="inlineStr">
-        <is>
           <t>hour</t>
         </is>
       </c>
@@ -443,11 +437,6 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Cytiva</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
           <t>month</t>
         </is>
       </c>
@@ -455,11 +444,6 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Thermo Fisher Scientific</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
           <t>year</t>
         </is>
       </c>
@@ -467,11 +451,6 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Zeiss Microscopy</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
           <t>day</t>
         </is>
       </c>
@@ -479,187 +458,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Complete Genomics</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
           <t>minute</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>3DHISTECH</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>GE Healthcare</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>Leica Microsystems</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>Akoya Biosciences</t>
-        </is>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>NanoString</t>
-        </is>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>Element Biosciences</t>
-        </is>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>Andor</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>Huron Digital Pathology</t>
-        </is>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="inlineStr">
-        <is>
-          <t>Illumina</t>
-        </is>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="inlineStr">
-        <is>
-          <t>Ionpath</t>
-        </is>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
-        <is>
-          <t>In-House</t>
-        </is>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>Resolve Biosciences</t>
-        </is>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
-        <is>
-          <t>Singular Genomics</t>
-        </is>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="inlineStr">
-        <is>
-          <t>Vizgen</t>
-        </is>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="inlineStr">
-        <is>
-          <t>Standard BioTools (Fluidigm)</t>
-        </is>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" t="inlineStr">
-        <is>
-          <t>Sciex</t>
-        </is>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" t="inlineStr">
-        <is>
-          <t>Bruker</t>
-        </is>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" t="inlineStr">
-        <is>
-          <t>Evident Scientific (Olympus)</t>
-        </is>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" t="inlineStr">
-        <is>
-          <t>Keyence</t>
-        </is>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" t="inlineStr">
-        <is>
-          <t>Leica Biosystems</t>
-        </is>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" t="inlineStr">
-        <is>
-          <t>Cytek Biosciences</t>
-        </is>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" t="inlineStr">
-        <is>
-          <t>10x Genomics</t>
-        </is>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" t="inlineStr">
-        <is>
-          <t>Microscopes International</t>
-        </is>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" t="inlineStr">
-        <is>
-          <t>Hamamatsu</t>
-        </is>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" t="inlineStr">
-        <is>
-          <t>Motic</t>
         </is>
       </c>
     </row>
@@ -674,7 +473,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E11"/>
+  <dimension ref="A1:E1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -709,243 +508,7 @@
         </is>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>HBM258.LPGK.484</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>acquisition_instrument_vendor</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>Leica</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr"/>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM258.LPGK.484</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>HBM289.XGJN.789</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>acquisition_instrument_vendor</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>Leica</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr"/>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM289.XGJN.789</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>HBM388.RPTF.754</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>acquisition_instrument_vendor</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>Leica</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr"/>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM388.RPTF.754</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>HBM397.DNSQ.977</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>acquisition_instrument_vendor</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>Leica</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr"/>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM397.DNSQ.977</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>HBM397.WXXH.736</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>acquisition_instrument_vendor</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>Leica</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr"/>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM397.WXXH.736</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>HBM657.CDHD.889</t>
-        </is>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>acquisition_instrument_vendor</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>Leica</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr"/>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM657.CDHD.889</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>HBM696.JXRB.423</t>
-        </is>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>acquisition_instrument_vendor</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>Leica</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr"/>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM696.JXRB.423</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>HBM775.JPHP.327</t>
-        </is>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>acquisition_instrument_vendor</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>Leica</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr"/>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM775.JPHP.327</t>
-        </is>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>HBM993.ZZWK.542</t>
-        </is>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>acquisition_instrument_vendor</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>Leica</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr"/>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM993.ZZWK.542</t>
-        </is>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>HBM999.CXFH.954</t>
-        </is>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>acquisition_instrument_vendor</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>Leica</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr"/>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM999.CXFH.954</t>
-        </is>
-      </c>
-    </row>
   </sheetData>
-  <autoFilter ref="A1:E11"/>
-  <dataValidations count="1">
-    <dataValidation sqref="D2 D3 D4 D5 D6 D7 D8 D9 D10 D11" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" errorTitle="Invalid Entry" error="Your entry is not in the list" promptTitle="List Selection" prompt="Please select from the list" type="list">
-      <formula1>_validation_data!$A$1:$A$30</formula1>
-    </dataValidation>
-  </dataValidations>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
@@ -956,7 +519,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D161"/>
+  <dimension ref="A1:D129"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1012,7 +575,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>nuclear_marker_or_stain</t>
+          <t>slide_id</t>
         </is>
       </c>
       <c r="C3" t="inlineStr"/>
@@ -1030,7 +593,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>slide_id</t>
+          <t>source_storage_duration_unit</t>
         </is>
       </c>
       <c r="C4" t="inlineStr"/>
@@ -1048,7 +611,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>source_storage_duration_unit</t>
+          <t>source_storage_duration_value</t>
         </is>
       </c>
       <c r="C5" t="inlineStr"/>
@@ -1061,18 +624,18 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>HBM234.DHWB.478</t>
+          <t>HBM238.ZKPC.934</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>source_storage_duration_value</t>
+          <t>cell_boundary_marker_or_stain</t>
         </is>
       </c>
       <c r="C6" t="inlineStr"/>
       <c r="D6" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM234.DHWB.478</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM238.ZKPC.934</t>
         </is>
       </c>
     </row>
@@ -1084,7 +647,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>cell_boundary_marker_or_stain</t>
+          <t>slide_id</t>
         </is>
       </c>
       <c r="C7" t="inlineStr"/>
@@ -1102,7 +665,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>nuclear_marker_or_stain</t>
+          <t>source_storage_duration_unit</t>
         </is>
       </c>
       <c r="C8" t="inlineStr"/>
@@ -1120,7 +683,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>slide_id</t>
+          <t>source_storage_duration_value</t>
         </is>
       </c>
       <c r="C9" t="inlineStr"/>
@@ -1133,36 +696,36 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>HBM238.ZKPC.934</t>
+          <t>HBM258.LPGK.484</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>source_storage_duration_unit</t>
+          <t>cell_boundary_marker_or_stain</t>
         </is>
       </c>
       <c r="C10" t="inlineStr"/>
       <c r="D10" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM238.ZKPC.934</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM258.LPGK.484</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>HBM238.ZKPC.934</t>
+          <t>HBM258.LPGK.484</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>source_storage_duration_value</t>
+          <t>slide_id</t>
         </is>
       </c>
       <c r="C11" t="inlineStr"/>
       <c r="D11" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM238.ZKPC.934</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM258.LPGK.484</t>
         </is>
       </c>
     </row>
@@ -1174,7 +737,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>cell_boundary_marker_or_stain</t>
+          <t>source_storage_duration_unit</t>
         </is>
       </c>
       <c r="C12" t="inlineStr"/>
@@ -1192,7 +755,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>nuclear_marker_or_stain</t>
+          <t>source_storage_duration_value</t>
         </is>
       </c>
       <c r="C13" t="inlineStr"/>
@@ -1205,54 +768,54 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>HBM258.LPGK.484</t>
+          <t>HBM289.XGJN.789</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>slide_id</t>
+          <t>cell_boundary_marker_or_stain</t>
         </is>
       </c>
       <c r="C14" t="inlineStr"/>
       <c r="D14" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM258.LPGK.484</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM289.XGJN.789</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>HBM258.LPGK.484</t>
+          <t>HBM289.XGJN.789</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>source_storage_duration_unit</t>
+          <t>slide_id</t>
         </is>
       </c>
       <c r="C15" t="inlineStr"/>
       <c r="D15" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM258.LPGK.484</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM289.XGJN.789</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>HBM258.LPGK.484</t>
+          <t>HBM289.XGJN.789</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>source_storage_duration_value</t>
+          <t>source_storage_duration_unit</t>
         </is>
       </c>
       <c r="C16" t="inlineStr"/>
       <c r="D16" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM258.LPGK.484</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM289.XGJN.789</t>
         </is>
       </c>
     </row>
@@ -1264,7 +827,7 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>cell_boundary_marker_or_stain</t>
+          <t>source_storage_duration_value</t>
         </is>
       </c>
       <c r="C17" t="inlineStr"/>
@@ -1277,25 +840,25 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>HBM289.XGJN.789</t>
+          <t>HBM388.RPTF.754</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>nuclear_marker_or_stain</t>
+          <t>cell_boundary_marker_or_stain</t>
         </is>
       </c>
       <c r="C18" t="inlineStr"/>
       <c r="D18" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM289.XGJN.789</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM388.RPTF.754</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>HBM289.XGJN.789</t>
+          <t>HBM388.RPTF.754</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
@@ -1306,14 +869,14 @@
       <c r="C19" t="inlineStr"/>
       <c r="D19" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM289.XGJN.789</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM388.RPTF.754</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>HBM289.XGJN.789</t>
+          <t>HBM388.RPTF.754</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
@@ -1324,14 +887,14 @@
       <c r="C20" t="inlineStr"/>
       <c r="D20" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM289.XGJN.789</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM388.RPTF.754</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>HBM289.XGJN.789</t>
+          <t>HBM388.RPTF.754</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
@@ -1342,14 +905,14 @@
       <c r="C21" t="inlineStr"/>
       <c r="D21" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM289.XGJN.789</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM388.RPTF.754</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>HBM388.RPTF.754</t>
+          <t>HBM397.DNSQ.977</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
@@ -1360,302 +923,302 @@
       <c r="C22" t="inlineStr"/>
       <c r="D22" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM388.RPTF.754</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM397.DNSQ.977</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>HBM388.RPTF.754</t>
+          <t>HBM397.DNSQ.977</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>nuclear_marker_or_stain</t>
+          <t>slide_id</t>
         </is>
       </c>
       <c r="C23" t="inlineStr"/>
       <c r="D23" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM388.RPTF.754</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM397.DNSQ.977</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>HBM388.RPTF.754</t>
+          <t>HBM397.DNSQ.977</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>slide_id</t>
+          <t>source_storage_duration_unit</t>
         </is>
       </c>
       <c r="C24" t="inlineStr"/>
       <c r="D24" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM388.RPTF.754</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM397.DNSQ.977</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>HBM388.RPTF.754</t>
+          <t>HBM397.DNSQ.977</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>source_storage_duration_unit</t>
+          <t>source_storage_duration_value</t>
         </is>
       </c>
       <c r="C25" t="inlineStr"/>
       <c r="D25" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM388.RPTF.754</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM397.DNSQ.977</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>HBM388.RPTF.754</t>
+          <t>HBM397.WXXH.736</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>source_storage_duration_value</t>
+          <t>cell_boundary_marker_or_stain</t>
         </is>
       </c>
       <c r="C26" t="inlineStr"/>
       <c r="D26" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM388.RPTF.754</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM397.WXXH.736</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>HBM397.DNSQ.977</t>
+          <t>HBM397.WXXH.736</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>cell_boundary_marker_or_stain</t>
+          <t>slide_id</t>
         </is>
       </c>
       <c r="C27" t="inlineStr"/>
       <c r="D27" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM397.DNSQ.977</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM397.WXXH.736</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>HBM397.DNSQ.977</t>
+          <t>HBM397.WXXH.736</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>nuclear_marker_or_stain</t>
+          <t>source_storage_duration_unit</t>
         </is>
       </c>
       <c r="C28" t="inlineStr"/>
       <c r="D28" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM397.DNSQ.977</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM397.WXXH.736</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>HBM397.DNSQ.977</t>
+          <t>HBM397.WXXH.736</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>slide_id</t>
+          <t>source_storage_duration_value</t>
         </is>
       </c>
       <c r="C29" t="inlineStr"/>
       <c r="D29" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM397.DNSQ.977</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM397.WXXH.736</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>HBM397.DNSQ.977</t>
+          <t>HBM398.NCVN.256</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>source_storage_duration_unit</t>
+          <t>cell_boundary_marker_or_stain</t>
         </is>
       </c>
       <c r="C30" t="inlineStr"/>
       <c r="D30" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM397.DNSQ.977</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM398.NCVN.256</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>HBM397.DNSQ.977</t>
+          <t>HBM398.NCVN.256</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>source_storage_duration_value</t>
+          <t>slide_id</t>
         </is>
       </c>
       <c r="C31" t="inlineStr"/>
       <c r="D31" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM397.DNSQ.977</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM398.NCVN.256</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>HBM397.WXXH.736</t>
+          <t>HBM398.NCVN.256</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>cell_boundary_marker_or_stain</t>
+          <t>source_storage_duration_unit</t>
         </is>
       </c>
       <c r="C32" t="inlineStr"/>
       <c r="D32" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM397.WXXH.736</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM398.NCVN.256</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>HBM397.WXXH.736</t>
+          <t>HBM398.NCVN.256</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>nuclear_marker_or_stain</t>
+          <t>source_storage_duration_value</t>
         </is>
       </c>
       <c r="C33" t="inlineStr"/>
       <c r="D33" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM397.WXXH.736</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM398.NCVN.256</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>HBM397.WXXH.736</t>
+          <t>HBM482.MVFZ.845</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>slide_id</t>
+          <t>cell_boundary_marker_or_stain</t>
         </is>
       </c>
       <c r="C34" t="inlineStr"/>
       <c r="D34" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM397.WXXH.736</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM482.MVFZ.845</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>HBM397.WXXH.736</t>
+          <t>HBM482.MVFZ.845</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>source_storage_duration_unit</t>
+          <t>slide_id</t>
         </is>
       </c>
       <c r="C35" t="inlineStr"/>
       <c r="D35" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM397.WXXH.736</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM482.MVFZ.845</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>HBM397.WXXH.736</t>
+          <t>HBM482.MVFZ.845</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>source_storage_duration_value</t>
+          <t>source_storage_duration_unit</t>
         </is>
       </c>
       <c r="C36" t="inlineStr"/>
       <c r="D36" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM397.WXXH.736</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM482.MVFZ.845</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>HBM398.NCVN.256</t>
+          <t>HBM482.MVFZ.845</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>cell_boundary_marker_or_stain</t>
+          <t>source_storage_duration_value</t>
         </is>
       </c>
       <c r="C37" t="inlineStr"/>
       <c r="D37" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM398.NCVN.256</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM482.MVFZ.845</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>HBM398.NCVN.256</t>
+          <t>HBM494.XDQW.356</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>nuclear_marker_or_stain</t>
+          <t>cell_boundary_marker_or_stain</t>
         </is>
       </c>
       <c r="C38" t="inlineStr"/>
       <c r="D38" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM398.NCVN.256</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM494.XDQW.356</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>HBM398.NCVN.256</t>
+          <t>HBM494.XDQW.356</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
@@ -1666,14 +1229,14 @@
       <c r="C39" t="inlineStr"/>
       <c r="D39" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM398.NCVN.256</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM494.XDQW.356</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>HBM398.NCVN.256</t>
+          <t>HBM494.XDQW.356</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
@@ -1684,14 +1247,14 @@
       <c r="C40" t="inlineStr"/>
       <c r="D40" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM398.NCVN.256</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM494.XDQW.356</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>HBM398.NCVN.256</t>
+          <t>HBM494.XDQW.356</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
@@ -1702,14 +1265,14 @@
       <c r="C41" t="inlineStr"/>
       <c r="D41" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM398.NCVN.256</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM494.XDQW.356</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>HBM482.MVFZ.845</t>
+          <t>HBM565.SQDP.934</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
@@ -1720,302 +1283,302 @@
       <c r="C42" t="inlineStr"/>
       <c r="D42" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM482.MVFZ.845</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM565.SQDP.934</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>HBM482.MVFZ.845</t>
+          <t>HBM565.SQDP.934</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>nuclear_marker_or_stain</t>
+          <t>slide_id</t>
         </is>
       </c>
       <c r="C43" t="inlineStr"/>
       <c r="D43" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM482.MVFZ.845</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM565.SQDP.934</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>HBM482.MVFZ.845</t>
+          <t>HBM565.SQDP.934</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>slide_id</t>
+          <t>source_storage_duration_unit</t>
         </is>
       </c>
       <c r="C44" t="inlineStr"/>
       <c r="D44" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM482.MVFZ.845</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM565.SQDP.934</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>HBM482.MVFZ.845</t>
+          <t>HBM565.SQDP.934</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>source_storage_duration_unit</t>
+          <t>source_storage_duration_value</t>
         </is>
       </c>
       <c r="C45" t="inlineStr"/>
       <c r="D45" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM482.MVFZ.845</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM565.SQDP.934</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>HBM482.MVFZ.845</t>
+          <t>HBM592.JGSQ.253</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>source_storage_duration_value</t>
+          <t>cell_boundary_marker_or_stain</t>
         </is>
       </c>
       <c r="C46" t="inlineStr"/>
       <c r="D46" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM482.MVFZ.845</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM592.JGSQ.253</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>HBM494.XDQW.356</t>
+          <t>HBM592.JGSQ.253</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>cell_boundary_marker_or_stain</t>
+          <t>slide_id</t>
         </is>
       </c>
       <c r="C47" t="inlineStr"/>
       <c r="D47" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM494.XDQW.356</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM592.JGSQ.253</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>HBM494.XDQW.356</t>
+          <t>HBM592.JGSQ.253</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>nuclear_marker_or_stain</t>
+          <t>source_storage_duration_unit</t>
         </is>
       </c>
       <c r="C48" t="inlineStr"/>
       <c r="D48" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM494.XDQW.356</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM592.JGSQ.253</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>HBM494.XDQW.356</t>
+          <t>HBM592.JGSQ.253</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>slide_id</t>
+          <t>source_storage_duration_value</t>
         </is>
       </c>
       <c r="C49" t="inlineStr"/>
       <c r="D49" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM494.XDQW.356</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM592.JGSQ.253</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>HBM494.XDQW.356</t>
+          <t>HBM657.CDHD.889</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>source_storage_duration_unit</t>
+          <t>cell_boundary_marker_or_stain</t>
         </is>
       </c>
       <c r="C50" t="inlineStr"/>
       <c r="D50" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM494.XDQW.356</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM657.CDHD.889</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>HBM494.XDQW.356</t>
+          <t>HBM657.CDHD.889</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>source_storage_duration_value</t>
+          <t>slide_id</t>
         </is>
       </c>
       <c r="C51" t="inlineStr"/>
       <c r="D51" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM494.XDQW.356</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM657.CDHD.889</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>HBM565.SQDP.934</t>
+          <t>HBM657.CDHD.889</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>cell_boundary_marker_or_stain</t>
+          <t>source_storage_duration_unit</t>
         </is>
       </c>
       <c r="C52" t="inlineStr"/>
       <c r="D52" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM565.SQDP.934</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM657.CDHD.889</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>HBM565.SQDP.934</t>
+          <t>HBM657.CDHD.889</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>nuclear_marker_or_stain</t>
+          <t>source_storage_duration_value</t>
         </is>
       </c>
       <c r="C53" t="inlineStr"/>
       <c r="D53" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM565.SQDP.934</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM657.CDHD.889</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>HBM565.SQDP.934</t>
+          <t>HBM664.DZXQ.368</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>slide_id</t>
+          <t>cell_boundary_marker_or_stain</t>
         </is>
       </c>
       <c r="C54" t="inlineStr"/>
       <c r="D54" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM565.SQDP.934</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM664.DZXQ.368</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>HBM565.SQDP.934</t>
+          <t>HBM664.DZXQ.368</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>source_storage_duration_unit</t>
+          <t>slide_id</t>
         </is>
       </c>
       <c r="C55" t="inlineStr"/>
       <c r="D55" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM565.SQDP.934</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM664.DZXQ.368</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>HBM565.SQDP.934</t>
+          <t>HBM664.DZXQ.368</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>source_storage_duration_value</t>
+          <t>source_storage_duration_unit</t>
         </is>
       </c>
       <c r="C56" t="inlineStr"/>
       <c r="D56" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM565.SQDP.934</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM664.DZXQ.368</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>HBM592.JGSQ.253</t>
+          <t>HBM664.DZXQ.368</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>cell_boundary_marker_or_stain</t>
+          <t>source_storage_duration_value</t>
         </is>
       </c>
       <c r="C57" t="inlineStr"/>
       <c r="D57" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM592.JGSQ.253</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM664.DZXQ.368</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>HBM592.JGSQ.253</t>
+          <t>HBM664.FKZG.689</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>nuclear_marker_or_stain</t>
+          <t>cell_boundary_marker_or_stain</t>
         </is>
       </c>
       <c r="C58" t="inlineStr"/>
       <c r="D58" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM592.JGSQ.253</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM664.FKZG.689</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>HBM592.JGSQ.253</t>
+          <t>HBM664.FKZG.689</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
@@ -2026,14 +1589,14 @@
       <c r="C59" t="inlineStr"/>
       <c r="D59" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM592.JGSQ.253</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM664.FKZG.689</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>HBM592.JGSQ.253</t>
+          <t>HBM664.FKZG.689</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
@@ -2044,14 +1607,14 @@
       <c r="C60" t="inlineStr"/>
       <c r="D60" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM592.JGSQ.253</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM664.FKZG.689</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>HBM592.JGSQ.253</t>
+          <t>HBM664.FKZG.689</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
@@ -2062,14 +1625,14 @@
       <c r="C61" t="inlineStr"/>
       <c r="D61" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM592.JGSQ.253</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM664.FKZG.689</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>HBM657.CDHD.889</t>
+          <t>HBM666.JCGS.862</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
@@ -2080,302 +1643,302 @@
       <c r="C62" t="inlineStr"/>
       <c r="D62" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM657.CDHD.889</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM666.JCGS.862</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>HBM657.CDHD.889</t>
+          <t>HBM666.JCGS.862</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>nuclear_marker_or_stain</t>
+          <t>slide_id</t>
         </is>
       </c>
       <c r="C63" t="inlineStr"/>
       <c r="D63" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM657.CDHD.889</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM666.JCGS.862</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>HBM657.CDHD.889</t>
+          <t>HBM666.JCGS.862</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>slide_id</t>
+          <t>source_storage_duration_unit</t>
         </is>
       </c>
       <c r="C64" t="inlineStr"/>
       <c r="D64" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM657.CDHD.889</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM666.JCGS.862</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>HBM657.CDHD.889</t>
+          <t>HBM666.JCGS.862</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>source_storage_duration_unit</t>
+          <t>source_storage_duration_value</t>
         </is>
       </c>
       <c r="C65" t="inlineStr"/>
       <c r="D65" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM657.CDHD.889</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM666.JCGS.862</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>HBM657.CDHD.889</t>
+          <t>HBM674.XQFQ.364</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>source_storage_duration_value</t>
+          <t>cell_boundary_marker_or_stain</t>
         </is>
       </c>
       <c r="C66" t="inlineStr"/>
       <c r="D66" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM657.CDHD.889</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM674.XQFQ.364</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>HBM664.DZXQ.368</t>
+          <t>HBM674.XQFQ.364</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>cell_boundary_marker_or_stain</t>
+          <t>slide_id</t>
         </is>
       </c>
       <c r="C67" t="inlineStr"/>
       <c r="D67" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM664.DZXQ.368</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM674.XQFQ.364</t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>HBM664.DZXQ.368</t>
+          <t>HBM674.XQFQ.364</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>nuclear_marker_or_stain</t>
+          <t>source_storage_duration_unit</t>
         </is>
       </c>
       <c r="C68" t="inlineStr"/>
       <c r="D68" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM664.DZXQ.368</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM674.XQFQ.364</t>
         </is>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>HBM664.DZXQ.368</t>
+          <t>HBM674.XQFQ.364</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>slide_id</t>
+          <t>source_storage_duration_value</t>
         </is>
       </c>
       <c r="C69" t="inlineStr"/>
       <c r="D69" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM664.DZXQ.368</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM674.XQFQ.364</t>
         </is>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>HBM664.DZXQ.368</t>
+          <t>HBM679.HJKX.869</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>source_storage_duration_unit</t>
+          <t>cell_boundary_marker_or_stain</t>
         </is>
       </c>
       <c r="C70" t="inlineStr"/>
       <c r="D70" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM664.DZXQ.368</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM679.HJKX.869</t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>HBM664.DZXQ.368</t>
+          <t>HBM679.HJKX.869</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>source_storage_duration_value</t>
+          <t>slide_id</t>
         </is>
       </c>
       <c r="C71" t="inlineStr"/>
       <c r="D71" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM664.DZXQ.368</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM679.HJKX.869</t>
         </is>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>HBM664.FKZG.689</t>
+          <t>HBM679.HJKX.869</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>cell_boundary_marker_or_stain</t>
+          <t>source_storage_duration_unit</t>
         </is>
       </c>
       <c r="C72" t="inlineStr"/>
       <c r="D72" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM664.FKZG.689</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM679.HJKX.869</t>
         </is>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>HBM664.FKZG.689</t>
+          <t>HBM679.HJKX.869</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>nuclear_marker_or_stain</t>
+          <t>source_storage_duration_value</t>
         </is>
       </c>
       <c r="C73" t="inlineStr"/>
       <c r="D73" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM664.FKZG.689</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM679.HJKX.869</t>
         </is>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>HBM664.FKZG.689</t>
+          <t>HBM696.JXRB.423</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>slide_id</t>
+          <t>cell_boundary_marker_or_stain</t>
         </is>
       </c>
       <c r="C74" t="inlineStr"/>
       <c r="D74" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM664.FKZG.689</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM696.JXRB.423</t>
         </is>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>HBM664.FKZG.689</t>
+          <t>HBM696.JXRB.423</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>source_storage_duration_unit</t>
+          <t>slide_id</t>
         </is>
       </c>
       <c r="C75" t="inlineStr"/>
       <c r="D75" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM664.FKZG.689</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM696.JXRB.423</t>
         </is>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>HBM664.FKZG.689</t>
+          <t>HBM696.JXRB.423</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>source_storage_duration_value</t>
+          <t>source_storage_duration_unit</t>
         </is>
       </c>
       <c r="C76" t="inlineStr"/>
       <c r="D76" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM664.FKZG.689</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM696.JXRB.423</t>
         </is>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>HBM666.JCGS.862</t>
+          <t>HBM696.JXRB.423</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>cell_boundary_marker_or_stain</t>
+          <t>source_storage_duration_value</t>
         </is>
       </c>
       <c r="C77" t="inlineStr"/>
       <c r="D77" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM666.JCGS.862</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM696.JXRB.423</t>
         </is>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>HBM666.JCGS.862</t>
+          <t>HBM732.FZVZ.656</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>nuclear_marker_or_stain</t>
+          <t>cell_boundary_marker_or_stain</t>
         </is>
       </c>
       <c r="C78" t="inlineStr"/>
       <c r="D78" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM666.JCGS.862</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM732.FZVZ.656</t>
         </is>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>HBM666.JCGS.862</t>
+          <t>HBM732.FZVZ.656</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
@@ -2386,14 +1949,14 @@
       <c r="C79" t="inlineStr"/>
       <c r="D79" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM666.JCGS.862</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM732.FZVZ.656</t>
         </is>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>HBM666.JCGS.862</t>
+          <t>HBM732.FZVZ.656</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
@@ -2404,14 +1967,14 @@
       <c r="C80" t="inlineStr"/>
       <c r="D80" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM666.JCGS.862</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM732.FZVZ.656</t>
         </is>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>HBM666.JCGS.862</t>
+          <t>HBM732.FZVZ.656</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
@@ -2422,14 +1985,14 @@
       <c r="C81" t="inlineStr"/>
       <c r="D81" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM666.JCGS.862</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM732.FZVZ.656</t>
         </is>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>HBM674.XQFQ.364</t>
+          <t>HBM746.VTDZ.959</t>
         </is>
       </c>
       <c r="B82" t="inlineStr">
@@ -2440,302 +2003,302 @@
       <c r="C82" t="inlineStr"/>
       <c r="D82" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM674.XQFQ.364</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM746.VTDZ.959</t>
         </is>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>HBM674.XQFQ.364</t>
+          <t>HBM746.VTDZ.959</t>
         </is>
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>nuclear_marker_or_stain</t>
+          <t>slide_id</t>
         </is>
       </c>
       <c r="C83" t="inlineStr"/>
       <c r="D83" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM674.XQFQ.364</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM746.VTDZ.959</t>
         </is>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>HBM674.XQFQ.364</t>
+          <t>HBM746.VTDZ.959</t>
         </is>
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>slide_id</t>
+          <t>source_storage_duration_unit</t>
         </is>
       </c>
       <c r="C84" t="inlineStr"/>
       <c r="D84" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM674.XQFQ.364</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM746.VTDZ.959</t>
         </is>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>HBM674.XQFQ.364</t>
+          <t>HBM746.VTDZ.959</t>
         </is>
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>source_storage_duration_unit</t>
+          <t>source_storage_duration_value</t>
         </is>
       </c>
       <c r="C85" t="inlineStr"/>
       <c r="D85" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM674.XQFQ.364</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM746.VTDZ.959</t>
         </is>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>HBM674.XQFQ.364</t>
+          <t>HBM747.SPWK.779</t>
         </is>
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>source_storage_duration_value</t>
+          <t>cell_boundary_marker_or_stain</t>
         </is>
       </c>
       <c r="C86" t="inlineStr"/>
       <c r="D86" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM674.XQFQ.364</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM747.SPWK.779</t>
         </is>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>HBM679.HJKX.869</t>
+          <t>HBM747.SPWK.779</t>
         </is>
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>cell_boundary_marker_or_stain</t>
+          <t>slide_id</t>
         </is>
       </c>
       <c r="C87" t="inlineStr"/>
       <c r="D87" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM679.HJKX.869</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM747.SPWK.779</t>
         </is>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>HBM679.HJKX.869</t>
+          <t>HBM747.SPWK.779</t>
         </is>
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>nuclear_marker_or_stain</t>
+          <t>source_storage_duration_unit</t>
         </is>
       </c>
       <c r="C88" t="inlineStr"/>
       <c r="D88" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM679.HJKX.869</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM747.SPWK.779</t>
         </is>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>HBM679.HJKX.869</t>
+          <t>HBM747.SPWK.779</t>
         </is>
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>slide_id</t>
+          <t>source_storage_duration_value</t>
         </is>
       </c>
       <c r="C89" t="inlineStr"/>
       <c r="D89" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM679.HJKX.869</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM747.SPWK.779</t>
         </is>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>HBM679.HJKX.869</t>
+          <t>HBM756.VJGX.949</t>
         </is>
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>source_storage_duration_unit</t>
+          <t>cell_boundary_marker_or_stain</t>
         </is>
       </c>
       <c r="C90" t="inlineStr"/>
       <c r="D90" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM679.HJKX.869</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM756.VJGX.949</t>
         </is>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>HBM679.HJKX.869</t>
+          <t>HBM756.VJGX.949</t>
         </is>
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>source_storage_duration_value</t>
+          <t>slide_id</t>
         </is>
       </c>
       <c r="C91" t="inlineStr"/>
       <c r="D91" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM679.HJKX.869</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM756.VJGX.949</t>
         </is>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>HBM696.JXRB.423</t>
+          <t>HBM756.VJGX.949</t>
         </is>
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>cell_boundary_marker_or_stain</t>
+          <t>source_storage_duration_unit</t>
         </is>
       </c>
       <c r="C92" t="inlineStr"/>
       <c r="D92" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM696.JXRB.423</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM756.VJGX.949</t>
         </is>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>HBM696.JXRB.423</t>
+          <t>HBM756.VJGX.949</t>
         </is>
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>nuclear_marker_or_stain</t>
+          <t>source_storage_duration_value</t>
         </is>
       </c>
       <c r="C93" t="inlineStr"/>
       <c r="D93" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM696.JXRB.423</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM756.VJGX.949</t>
         </is>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>HBM696.JXRB.423</t>
+          <t>HBM775.JPHP.327</t>
         </is>
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>slide_id</t>
+          <t>cell_boundary_marker_or_stain</t>
         </is>
       </c>
       <c r="C94" t="inlineStr"/>
       <c r="D94" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM696.JXRB.423</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM775.JPHP.327</t>
         </is>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>HBM696.JXRB.423</t>
+          <t>HBM775.JPHP.327</t>
         </is>
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>source_storage_duration_unit</t>
+          <t>slide_id</t>
         </is>
       </c>
       <c r="C95" t="inlineStr"/>
       <c r="D95" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM696.JXRB.423</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM775.JPHP.327</t>
         </is>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>HBM696.JXRB.423</t>
+          <t>HBM775.JPHP.327</t>
         </is>
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>source_storage_duration_value</t>
+          <t>source_storage_duration_unit</t>
         </is>
       </c>
       <c r="C96" t="inlineStr"/>
       <c r="D96" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM696.JXRB.423</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM775.JPHP.327</t>
         </is>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>HBM732.FZVZ.656</t>
+          <t>HBM775.JPHP.327</t>
         </is>
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>cell_boundary_marker_or_stain</t>
+          <t>source_storage_duration_value</t>
         </is>
       </c>
       <c r="C97" t="inlineStr"/>
       <c r="D97" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM732.FZVZ.656</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM775.JPHP.327</t>
         </is>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>HBM732.FZVZ.656</t>
+          <t>HBM828.LLCJ.983</t>
         </is>
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>nuclear_marker_or_stain</t>
+          <t>cell_boundary_marker_or_stain</t>
         </is>
       </c>
       <c r="C98" t="inlineStr"/>
       <c r="D98" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM732.FZVZ.656</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM828.LLCJ.983</t>
         </is>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>HBM732.FZVZ.656</t>
+          <t>HBM828.LLCJ.983</t>
         </is>
       </c>
       <c r="B99" t="inlineStr">
@@ -2746,14 +2309,14 @@
       <c r="C99" t="inlineStr"/>
       <c r="D99" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM732.FZVZ.656</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM828.LLCJ.983</t>
         </is>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>HBM732.FZVZ.656</t>
+          <t>HBM828.LLCJ.983</t>
         </is>
       </c>
       <c r="B100" t="inlineStr">
@@ -2764,14 +2327,14 @@
       <c r="C100" t="inlineStr"/>
       <c r="D100" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM732.FZVZ.656</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM828.LLCJ.983</t>
         </is>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>HBM732.FZVZ.656</t>
+          <t>HBM828.LLCJ.983</t>
         </is>
       </c>
       <c r="B101" t="inlineStr">
@@ -2782,14 +2345,14 @@
       <c r="C101" t="inlineStr"/>
       <c r="D101" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM732.FZVZ.656</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM828.LLCJ.983</t>
         </is>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>HBM746.VTDZ.959</t>
+          <t>HBM832.BXFF.523</t>
         </is>
       </c>
       <c r="B102" t="inlineStr">
@@ -2800,302 +2363,302 @@
       <c r="C102" t="inlineStr"/>
       <c r="D102" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM746.VTDZ.959</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM832.BXFF.523</t>
         </is>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>HBM746.VTDZ.959</t>
+          <t>HBM832.BXFF.523</t>
         </is>
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>nuclear_marker_or_stain</t>
+          <t>slide_id</t>
         </is>
       </c>
       <c r="C103" t="inlineStr"/>
       <c r="D103" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM746.VTDZ.959</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM832.BXFF.523</t>
         </is>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>HBM746.VTDZ.959</t>
+          <t>HBM832.BXFF.523</t>
         </is>
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>slide_id</t>
+          <t>source_storage_duration_unit</t>
         </is>
       </c>
       <c r="C104" t="inlineStr"/>
       <c r="D104" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM746.VTDZ.959</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM832.BXFF.523</t>
         </is>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>HBM746.VTDZ.959</t>
+          <t>HBM832.BXFF.523</t>
         </is>
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>source_storage_duration_unit</t>
+          <t>source_storage_duration_value</t>
         </is>
       </c>
       <c r="C105" t="inlineStr"/>
       <c r="D105" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM746.VTDZ.959</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM832.BXFF.523</t>
         </is>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>HBM746.VTDZ.959</t>
+          <t>HBM867.NMXL.794</t>
         </is>
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>source_storage_duration_value</t>
+          <t>cell_boundary_marker_or_stain</t>
         </is>
       </c>
       <c r="C106" t="inlineStr"/>
       <c r="D106" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM746.VTDZ.959</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM867.NMXL.794</t>
         </is>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>HBM747.SPWK.779</t>
+          <t>HBM867.NMXL.794</t>
         </is>
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>cell_boundary_marker_or_stain</t>
+          <t>slide_id</t>
         </is>
       </c>
       <c r="C107" t="inlineStr"/>
       <c r="D107" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM747.SPWK.779</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM867.NMXL.794</t>
         </is>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>HBM747.SPWK.779</t>
+          <t>HBM867.NMXL.794</t>
         </is>
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>nuclear_marker_or_stain</t>
+          <t>source_storage_duration_unit</t>
         </is>
       </c>
       <c r="C108" t="inlineStr"/>
       <c r="D108" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM747.SPWK.779</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM867.NMXL.794</t>
         </is>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>HBM747.SPWK.779</t>
+          <t>HBM867.NMXL.794</t>
         </is>
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>slide_id</t>
+          <t>source_storage_duration_value</t>
         </is>
       </c>
       <c r="C109" t="inlineStr"/>
       <c r="D109" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM747.SPWK.779</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM867.NMXL.794</t>
         </is>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>HBM747.SPWK.779</t>
+          <t>HBM875.SBHJ.939</t>
         </is>
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>source_storage_duration_unit</t>
+          <t>cell_boundary_marker_or_stain</t>
         </is>
       </c>
       <c r="C110" t="inlineStr"/>
       <c r="D110" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM747.SPWK.779</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM875.SBHJ.939</t>
         </is>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>HBM747.SPWK.779</t>
+          <t>HBM875.SBHJ.939</t>
         </is>
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>source_storage_duration_value</t>
+          <t>slide_id</t>
         </is>
       </c>
       <c r="C111" t="inlineStr"/>
       <c r="D111" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM747.SPWK.779</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM875.SBHJ.939</t>
         </is>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>HBM756.VJGX.949</t>
+          <t>HBM875.SBHJ.939</t>
         </is>
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>cell_boundary_marker_or_stain</t>
+          <t>source_storage_duration_unit</t>
         </is>
       </c>
       <c r="C112" t="inlineStr"/>
       <c r="D112" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM756.VJGX.949</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM875.SBHJ.939</t>
         </is>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>HBM756.VJGX.949</t>
+          <t>HBM875.SBHJ.939</t>
         </is>
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>nuclear_marker_or_stain</t>
+          <t>source_storage_duration_value</t>
         </is>
       </c>
       <c r="C113" t="inlineStr"/>
       <c r="D113" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM756.VJGX.949</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM875.SBHJ.939</t>
         </is>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t>HBM756.VJGX.949</t>
+          <t>HBM948.WLJK.772</t>
         </is>
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>slide_id</t>
+          <t>cell_boundary_marker_or_stain</t>
         </is>
       </c>
       <c r="C114" t="inlineStr"/>
       <c r="D114" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM756.VJGX.949</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM948.WLJK.772</t>
         </is>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t>HBM756.VJGX.949</t>
+          <t>HBM948.WLJK.772</t>
         </is>
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>source_storage_duration_unit</t>
+          <t>slide_id</t>
         </is>
       </c>
       <c r="C115" t="inlineStr"/>
       <c r="D115" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM756.VJGX.949</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM948.WLJK.772</t>
         </is>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="inlineStr">
         <is>
-          <t>HBM756.VJGX.949</t>
+          <t>HBM948.WLJK.772</t>
         </is>
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>source_storage_duration_value</t>
+          <t>source_storage_duration_unit</t>
         </is>
       </c>
       <c r="C116" t="inlineStr"/>
       <c r="D116" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM756.VJGX.949</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM948.WLJK.772</t>
         </is>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="inlineStr">
         <is>
-          <t>HBM775.JPHP.327</t>
+          <t>HBM948.WLJK.772</t>
         </is>
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>cell_boundary_marker_or_stain</t>
+          <t>source_storage_duration_value</t>
         </is>
       </c>
       <c r="C117" t="inlineStr"/>
       <c r="D117" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM775.JPHP.327</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM948.WLJK.772</t>
         </is>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="inlineStr">
         <is>
-          <t>HBM775.JPHP.327</t>
+          <t>HBM975.FVCG.922</t>
         </is>
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>nuclear_marker_or_stain</t>
+          <t>cell_boundary_marker_or_stain</t>
         </is>
       </c>
       <c r="C118" t="inlineStr"/>
       <c r="D118" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM775.JPHP.327</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM975.FVCG.922</t>
         </is>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="inlineStr">
         <is>
-          <t>HBM775.JPHP.327</t>
+          <t>HBM975.FVCG.922</t>
         </is>
       </c>
       <c r="B119" t="inlineStr">
@@ -3106,14 +2669,14 @@
       <c r="C119" t="inlineStr"/>
       <c r="D119" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM775.JPHP.327</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM975.FVCG.922</t>
         </is>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="inlineStr">
         <is>
-          <t>HBM775.JPHP.327</t>
+          <t>HBM975.FVCG.922</t>
         </is>
       </c>
       <c r="B120" t="inlineStr">
@@ -3124,14 +2687,14 @@
       <c r="C120" t="inlineStr"/>
       <c r="D120" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM775.JPHP.327</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM975.FVCG.922</t>
         </is>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="inlineStr">
         <is>
-          <t>HBM775.JPHP.327</t>
+          <t>HBM975.FVCG.922</t>
         </is>
       </c>
       <c r="B121" t="inlineStr">
@@ -3142,14 +2705,14 @@
       <c r="C121" t="inlineStr"/>
       <c r="D121" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM775.JPHP.327</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM975.FVCG.922</t>
         </is>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="inlineStr">
         <is>
-          <t>HBM828.LLCJ.983</t>
+          <t>HBM993.ZZWK.542</t>
         </is>
       </c>
       <c r="B122" t="inlineStr">
@@ -3160,717 +2723,141 @@
       <c r="C122" t="inlineStr"/>
       <c r="D122" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM828.LLCJ.983</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM993.ZZWK.542</t>
         </is>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="inlineStr">
         <is>
-          <t>HBM828.LLCJ.983</t>
+          <t>HBM993.ZZWK.542</t>
         </is>
       </c>
       <c r="B123" t="inlineStr">
         <is>
-          <t>nuclear_marker_or_stain</t>
+          <t>slide_id</t>
         </is>
       </c>
       <c r="C123" t="inlineStr"/>
       <c r="D123" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM828.LLCJ.983</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM993.ZZWK.542</t>
         </is>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="inlineStr">
         <is>
-          <t>HBM828.LLCJ.983</t>
+          <t>HBM993.ZZWK.542</t>
         </is>
       </c>
       <c r="B124" t="inlineStr">
         <is>
-          <t>slide_id</t>
+          <t>source_storage_duration_unit</t>
         </is>
       </c>
       <c r="C124" t="inlineStr"/>
       <c r="D124" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM828.LLCJ.983</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM993.ZZWK.542</t>
         </is>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="inlineStr">
         <is>
-          <t>HBM828.LLCJ.983</t>
+          <t>HBM993.ZZWK.542</t>
         </is>
       </c>
       <c r="B125" t="inlineStr">
         <is>
-          <t>source_storage_duration_unit</t>
+          <t>source_storage_duration_value</t>
         </is>
       </c>
       <c r="C125" t="inlineStr"/>
       <c r="D125" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM828.LLCJ.983</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM993.ZZWK.542</t>
         </is>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="inlineStr">
         <is>
-          <t>HBM828.LLCJ.983</t>
+          <t>HBM999.CXFH.954</t>
         </is>
       </c>
       <c r="B126" t="inlineStr">
         <is>
-          <t>source_storage_duration_value</t>
+          <t>cell_boundary_marker_or_stain</t>
         </is>
       </c>
       <c r="C126" t="inlineStr"/>
       <c r="D126" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM828.LLCJ.983</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM999.CXFH.954</t>
         </is>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="inlineStr">
         <is>
-          <t>HBM832.BXFF.523</t>
+          <t>HBM999.CXFH.954</t>
         </is>
       </c>
       <c r="B127" t="inlineStr">
         <is>
-          <t>cell_boundary_marker_or_stain</t>
+          <t>slide_id</t>
         </is>
       </c>
       <c r="C127" t="inlineStr"/>
       <c r="D127" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM832.BXFF.523</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM999.CXFH.954</t>
         </is>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="inlineStr">
         <is>
-          <t>HBM832.BXFF.523</t>
+          <t>HBM999.CXFH.954</t>
         </is>
       </c>
       <c r="B128" t="inlineStr">
         <is>
-          <t>nuclear_marker_or_stain</t>
+          <t>source_storage_duration_unit</t>
         </is>
       </c>
       <c r="C128" t="inlineStr"/>
       <c r="D128" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM832.BXFF.523</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM999.CXFH.954</t>
         </is>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="inlineStr">
         <is>
-          <t>HBM832.BXFF.523</t>
+          <t>HBM999.CXFH.954</t>
         </is>
       </c>
       <c r="B129" t="inlineStr">
         <is>
-          <t>slide_id</t>
+          <t>source_storage_duration_value</t>
         </is>
       </c>
       <c r="C129" t="inlineStr"/>
       <c r="D129" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM832.BXFF.523</t>
-        </is>
-      </c>
-    </row>
-    <row r="130">
-      <c r="A130" t="inlineStr">
-        <is>
-          <t>HBM832.BXFF.523</t>
-        </is>
-      </c>
-      <c r="B130" t="inlineStr">
-        <is>
-          <t>source_storage_duration_unit</t>
-        </is>
-      </c>
-      <c r="C130" t="inlineStr"/>
-      <c r="D130" t="inlineStr">
-        <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM832.BXFF.523</t>
-        </is>
-      </c>
-    </row>
-    <row r="131">
-      <c r="A131" t="inlineStr">
-        <is>
-          <t>HBM832.BXFF.523</t>
-        </is>
-      </c>
-      <c r="B131" t="inlineStr">
-        <is>
-          <t>source_storage_duration_value</t>
-        </is>
-      </c>
-      <c r="C131" t="inlineStr"/>
-      <c r="D131" t="inlineStr">
-        <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM832.BXFF.523</t>
-        </is>
-      </c>
-    </row>
-    <row r="132">
-      <c r="A132" t="inlineStr">
-        <is>
-          <t>HBM867.NMXL.794</t>
-        </is>
-      </c>
-      <c r="B132" t="inlineStr">
-        <is>
-          <t>cell_boundary_marker_or_stain</t>
-        </is>
-      </c>
-      <c r="C132" t="inlineStr"/>
-      <c r="D132" t="inlineStr">
-        <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM867.NMXL.794</t>
-        </is>
-      </c>
-    </row>
-    <row r="133">
-      <c r="A133" t="inlineStr">
-        <is>
-          <t>HBM867.NMXL.794</t>
-        </is>
-      </c>
-      <c r="B133" t="inlineStr">
-        <is>
-          <t>nuclear_marker_or_stain</t>
-        </is>
-      </c>
-      <c r="C133" t="inlineStr"/>
-      <c r="D133" t="inlineStr">
-        <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM867.NMXL.794</t>
-        </is>
-      </c>
-    </row>
-    <row r="134">
-      <c r="A134" t="inlineStr">
-        <is>
-          <t>HBM867.NMXL.794</t>
-        </is>
-      </c>
-      <c r="B134" t="inlineStr">
-        <is>
-          <t>slide_id</t>
-        </is>
-      </c>
-      <c r="C134" t="inlineStr"/>
-      <c r="D134" t="inlineStr">
-        <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM867.NMXL.794</t>
-        </is>
-      </c>
-    </row>
-    <row r="135">
-      <c r="A135" t="inlineStr">
-        <is>
-          <t>HBM867.NMXL.794</t>
-        </is>
-      </c>
-      <c r="B135" t="inlineStr">
-        <is>
-          <t>source_storage_duration_unit</t>
-        </is>
-      </c>
-      <c r="C135" t="inlineStr"/>
-      <c r="D135" t="inlineStr">
-        <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM867.NMXL.794</t>
-        </is>
-      </c>
-    </row>
-    <row r="136">
-      <c r="A136" t="inlineStr">
-        <is>
-          <t>HBM867.NMXL.794</t>
-        </is>
-      </c>
-      <c r="B136" t="inlineStr">
-        <is>
-          <t>source_storage_duration_value</t>
-        </is>
-      </c>
-      <c r="C136" t="inlineStr"/>
-      <c r="D136" t="inlineStr">
-        <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM867.NMXL.794</t>
-        </is>
-      </c>
-    </row>
-    <row r="137">
-      <c r="A137" t="inlineStr">
-        <is>
-          <t>HBM875.SBHJ.939</t>
-        </is>
-      </c>
-      <c r="B137" t="inlineStr">
-        <is>
-          <t>cell_boundary_marker_or_stain</t>
-        </is>
-      </c>
-      <c r="C137" t="inlineStr"/>
-      <c r="D137" t="inlineStr">
-        <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM875.SBHJ.939</t>
-        </is>
-      </c>
-    </row>
-    <row r="138">
-      <c r="A138" t="inlineStr">
-        <is>
-          <t>HBM875.SBHJ.939</t>
-        </is>
-      </c>
-      <c r="B138" t="inlineStr">
-        <is>
-          <t>nuclear_marker_or_stain</t>
-        </is>
-      </c>
-      <c r="C138" t="inlineStr"/>
-      <c r="D138" t="inlineStr">
-        <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM875.SBHJ.939</t>
-        </is>
-      </c>
-    </row>
-    <row r="139">
-      <c r="A139" t="inlineStr">
-        <is>
-          <t>HBM875.SBHJ.939</t>
-        </is>
-      </c>
-      <c r="B139" t="inlineStr">
-        <is>
-          <t>slide_id</t>
-        </is>
-      </c>
-      <c r="C139" t="inlineStr"/>
-      <c r="D139" t="inlineStr">
-        <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM875.SBHJ.939</t>
-        </is>
-      </c>
-    </row>
-    <row r="140">
-      <c r="A140" t="inlineStr">
-        <is>
-          <t>HBM875.SBHJ.939</t>
-        </is>
-      </c>
-      <c r="B140" t="inlineStr">
-        <is>
-          <t>source_storage_duration_unit</t>
-        </is>
-      </c>
-      <c r="C140" t="inlineStr"/>
-      <c r="D140" t="inlineStr">
-        <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM875.SBHJ.939</t>
-        </is>
-      </c>
-    </row>
-    <row r="141">
-      <c r="A141" t="inlineStr">
-        <is>
-          <t>HBM875.SBHJ.939</t>
-        </is>
-      </c>
-      <c r="B141" t="inlineStr">
-        <is>
-          <t>source_storage_duration_value</t>
-        </is>
-      </c>
-      <c r="C141" t="inlineStr"/>
-      <c r="D141" t="inlineStr">
-        <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM875.SBHJ.939</t>
-        </is>
-      </c>
-    </row>
-    <row r="142">
-      <c r="A142" t="inlineStr">
-        <is>
-          <t>HBM948.WLJK.772</t>
-        </is>
-      </c>
-      <c r="B142" t="inlineStr">
-        <is>
-          <t>cell_boundary_marker_or_stain</t>
-        </is>
-      </c>
-      <c r="C142" t="inlineStr"/>
-      <c r="D142" t="inlineStr">
-        <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM948.WLJK.772</t>
-        </is>
-      </c>
-    </row>
-    <row r="143">
-      <c r="A143" t="inlineStr">
-        <is>
-          <t>HBM948.WLJK.772</t>
-        </is>
-      </c>
-      <c r="B143" t="inlineStr">
-        <is>
-          <t>nuclear_marker_or_stain</t>
-        </is>
-      </c>
-      <c r="C143" t="inlineStr"/>
-      <c r="D143" t="inlineStr">
-        <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM948.WLJK.772</t>
-        </is>
-      </c>
-    </row>
-    <row r="144">
-      <c r="A144" t="inlineStr">
-        <is>
-          <t>HBM948.WLJK.772</t>
-        </is>
-      </c>
-      <c r="B144" t="inlineStr">
-        <is>
-          <t>slide_id</t>
-        </is>
-      </c>
-      <c r="C144" t="inlineStr"/>
-      <c r="D144" t="inlineStr">
-        <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM948.WLJK.772</t>
-        </is>
-      </c>
-    </row>
-    <row r="145">
-      <c r="A145" t="inlineStr">
-        <is>
-          <t>HBM948.WLJK.772</t>
-        </is>
-      </c>
-      <c r="B145" t="inlineStr">
-        <is>
-          <t>source_storage_duration_unit</t>
-        </is>
-      </c>
-      <c r="C145" t="inlineStr"/>
-      <c r="D145" t="inlineStr">
-        <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM948.WLJK.772</t>
-        </is>
-      </c>
-    </row>
-    <row r="146">
-      <c r="A146" t="inlineStr">
-        <is>
-          <t>HBM948.WLJK.772</t>
-        </is>
-      </c>
-      <c r="B146" t="inlineStr">
-        <is>
-          <t>source_storage_duration_value</t>
-        </is>
-      </c>
-      <c r="C146" t="inlineStr"/>
-      <c r="D146" t="inlineStr">
-        <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM948.WLJK.772</t>
-        </is>
-      </c>
-    </row>
-    <row r="147">
-      <c r="A147" t="inlineStr">
-        <is>
-          <t>HBM975.FVCG.922</t>
-        </is>
-      </c>
-      <c r="B147" t="inlineStr">
-        <is>
-          <t>cell_boundary_marker_or_stain</t>
-        </is>
-      </c>
-      <c r="C147" t="inlineStr"/>
-      <c r="D147" t="inlineStr">
-        <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM975.FVCG.922</t>
-        </is>
-      </c>
-    </row>
-    <row r="148">
-      <c r="A148" t="inlineStr">
-        <is>
-          <t>HBM975.FVCG.922</t>
-        </is>
-      </c>
-      <c r="B148" t="inlineStr">
-        <is>
-          <t>nuclear_marker_or_stain</t>
-        </is>
-      </c>
-      <c r="C148" t="inlineStr"/>
-      <c r="D148" t="inlineStr">
-        <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM975.FVCG.922</t>
-        </is>
-      </c>
-    </row>
-    <row r="149">
-      <c r="A149" t="inlineStr">
-        <is>
-          <t>HBM975.FVCG.922</t>
-        </is>
-      </c>
-      <c r="B149" t="inlineStr">
-        <is>
-          <t>slide_id</t>
-        </is>
-      </c>
-      <c r="C149" t="inlineStr"/>
-      <c r="D149" t="inlineStr">
-        <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM975.FVCG.922</t>
-        </is>
-      </c>
-    </row>
-    <row r="150">
-      <c r="A150" t="inlineStr">
-        <is>
-          <t>HBM975.FVCG.922</t>
-        </is>
-      </c>
-      <c r="B150" t="inlineStr">
-        <is>
-          <t>source_storage_duration_unit</t>
-        </is>
-      </c>
-      <c r="C150" t="inlineStr"/>
-      <c r="D150" t="inlineStr">
-        <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM975.FVCG.922</t>
-        </is>
-      </c>
-    </row>
-    <row r="151">
-      <c r="A151" t="inlineStr">
-        <is>
-          <t>HBM975.FVCG.922</t>
-        </is>
-      </c>
-      <c r="B151" t="inlineStr">
-        <is>
-          <t>source_storage_duration_value</t>
-        </is>
-      </c>
-      <c r="C151" t="inlineStr"/>
-      <c r="D151" t="inlineStr">
-        <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM975.FVCG.922</t>
-        </is>
-      </c>
-    </row>
-    <row r="152">
-      <c r="A152" t="inlineStr">
-        <is>
-          <t>HBM993.ZZWK.542</t>
-        </is>
-      </c>
-      <c r="B152" t="inlineStr">
-        <is>
-          <t>cell_boundary_marker_or_stain</t>
-        </is>
-      </c>
-      <c r="C152" t="inlineStr"/>
-      <c r="D152" t="inlineStr">
-        <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM993.ZZWK.542</t>
-        </is>
-      </c>
-    </row>
-    <row r="153">
-      <c r="A153" t="inlineStr">
-        <is>
-          <t>HBM993.ZZWK.542</t>
-        </is>
-      </c>
-      <c r="B153" t="inlineStr">
-        <is>
-          <t>nuclear_marker_or_stain</t>
-        </is>
-      </c>
-      <c r="C153" t="inlineStr"/>
-      <c r="D153" t="inlineStr">
-        <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM993.ZZWK.542</t>
-        </is>
-      </c>
-    </row>
-    <row r="154">
-      <c r="A154" t="inlineStr">
-        <is>
-          <t>HBM993.ZZWK.542</t>
-        </is>
-      </c>
-      <c r="B154" t="inlineStr">
-        <is>
-          <t>slide_id</t>
-        </is>
-      </c>
-      <c r="C154" t="inlineStr"/>
-      <c r="D154" t="inlineStr">
-        <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM993.ZZWK.542</t>
-        </is>
-      </c>
-    </row>
-    <row r="155">
-      <c r="A155" t="inlineStr">
-        <is>
-          <t>HBM993.ZZWK.542</t>
-        </is>
-      </c>
-      <c r="B155" t="inlineStr">
-        <is>
-          <t>source_storage_duration_unit</t>
-        </is>
-      </c>
-      <c r="C155" t="inlineStr"/>
-      <c r="D155" t="inlineStr">
-        <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM993.ZZWK.542</t>
-        </is>
-      </c>
-    </row>
-    <row r="156">
-      <c r="A156" t="inlineStr">
-        <is>
-          <t>HBM993.ZZWK.542</t>
-        </is>
-      </c>
-      <c r="B156" t="inlineStr">
-        <is>
-          <t>source_storage_duration_value</t>
-        </is>
-      </c>
-      <c r="C156" t="inlineStr"/>
-      <c r="D156" t="inlineStr">
-        <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM993.ZZWK.542</t>
-        </is>
-      </c>
-    </row>
-    <row r="157">
-      <c r="A157" t="inlineStr">
-        <is>
-          <t>HBM999.CXFH.954</t>
-        </is>
-      </c>
-      <c r="B157" t="inlineStr">
-        <is>
-          <t>cell_boundary_marker_or_stain</t>
-        </is>
-      </c>
-      <c r="C157" t="inlineStr"/>
-      <c r="D157" t="inlineStr">
-        <is>
           <t>https://portal.hubmapconsortium.org/browse/HBM999.CXFH.954</t>
         </is>
       </c>
     </row>
-    <row r="158">
-      <c r="A158" t="inlineStr">
-        <is>
-          <t>HBM999.CXFH.954</t>
-        </is>
-      </c>
-      <c r="B158" t="inlineStr">
-        <is>
-          <t>nuclear_marker_or_stain</t>
-        </is>
-      </c>
-      <c r="C158" t="inlineStr"/>
-      <c r="D158" t="inlineStr">
-        <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM999.CXFH.954</t>
-        </is>
-      </c>
-    </row>
-    <row r="159">
-      <c r="A159" t="inlineStr">
-        <is>
-          <t>HBM999.CXFH.954</t>
-        </is>
-      </c>
-      <c r="B159" t="inlineStr">
-        <is>
-          <t>slide_id</t>
-        </is>
-      </c>
-      <c r="C159" t="inlineStr"/>
-      <c r="D159" t="inlineStr">
-        <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM999.CXFH.954</t>
-        </is>
-      </c>
-    </row>
-    <row r="160">
-      <c r="A160" t="inlineStr">
-        <is>
-          <t>HBM999.CXFH.954</t>
-        </is>
-      </c>
-      <c r="B160" t="inlineStr">
-        <is>
-          <t>source_storage_duration_unit</t>
-        </is>
-      </c>
-      <c r="C160" t="inlineStr"/>
-      <c r="D160" t="inlineStr">
-        <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM999.CXFH.954</t>
-        </is>
-      </c>
-    </row>
-    <row r="161">
-      <c r="A161" t="inlineStr">
-        <is>
-          <t>HBM999.CXFH.954</t>
-        </is>
-      </c>
-      <c r="B161" t="inlineStr">
-        <is>
-          <t>source_storage_duration_value</t>
-        </is>
-      </c>
-      <c r="C161" t="inlineStr"/>
-      <c r="D161" t="inlineStr">
-        <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM999.CXFH.954</t>
-        </is>
-      </c>
-    </row>
   </sheetData>
-  <autoFilter ref="A1:D161"/>
+  <autoFilter ref="A1:D129"/>
   <dataValidations count="1">
-    <dataValidation sqref="C5 C10 C15 C20 C25 C30 C35 C40 C45 C50 C55 C60 C65 C70 C75 C80 C85 C90 C95 C100 C105 C110 C115 C120 C125 C130 C135 C140 C145 C150 C155 C160" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" errorTitle="Invalid Entry" error="Your entry is not in the list" promptTitle="List Selection" prompt="Please select from the list" type="list">
-      <formula1>_validation_data!$B$1:$B$5</formula1>
+    <dataValidation sqref="C4 C8 C12 C16 C20 C24 C28 C32 C36 C40 C44 C48 C52 C56 C60 C64 C68 C72 C76 C80 C84 C88 C92 C96 C100 C104 C108 C112 C116 C120 C124 C128" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" errorTitle="Invalid Entry" error="Your entry is not in the list" promptTitle="List Selection" prompt="Please select from the list" type="list">
+      <formula1>_validation_data!$A$1:$A$5</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
